--- a/docs/CAF Adoption Plans/CAF Adoption Plans based on Azure DevOps Demo Generator.xlsx
+++ b/docs/CAF Adoption Plans/CAF Adoption Plans based on Azure DevOps Demo Generator.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25818"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsofteur-my.sharepoint.com/personal/jovella_microsoft_com/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsofteur-my.sharepoint.com/personal/jovella_microsoft_com/Documents/Git/what-the-caf/docs/CAF Adoption Plans/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="86" documentId="8_{F79EF0DD-E004-442A-A0C8-344A744B49CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{074B9E20-39FA-4737-97A5-AC0EECEA2AD6}"/>
+  <xr:revisionPtr revIDLastSave="89" documentId="8_{F79EF0DD-E004-442A-A0C8-344A744B49CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{11451C45-D263-4535-9970-E268ED864160}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{B88549A7-F24B-498E-9D0E-1D2FEC12A618}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="5" xr2:uid="{B88549A7-F24B-498E-9D0E-1D2FEC12A618}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="7" r:id="rId1"/>
@@ -28,18 +28,18 @@
     <externalReference r:id="rId11"/>
   </externalReferences>
   <definedNames>
-    <definedName name="VSTS_ValidationRange_152e2e2d08524f88a67aec3420ab1b62" hidden="1">[3]VSTS_ValidationWS_1!$W$1:$W$4</definedName>
-    <definedName name="VSTS_ValidationRange_193a5843bf6a4c2284021f22cda814c1" hidden="1">[5]VSTS_ValidationWS_1!$V$1:$V$2</definedName>
-    <definedName name="VSTS_ValidationRange_2040ef8c211146f796b367afa04d1f99" hidden="1">[3]VSTS_ValidationWS_1!$U$1:$U$5</definedName>
-    <definedName name="VSTS_ValidationRange_2dfa5e8026e549c59d4ab788a36197e5" hidden="1">[4]VSTS_ValidationWS_1!$V$1:$V$2</definedName>
-    <definedName name="VSTS_ValidationRange_5e9dacfdf4d24a3ca203f02b6bbca412" hidden="1">[5]VSTS_ValidationWS_1!$G$1:$G$4</definedName>
-    <definedName name="VSTS_ValidationRange_84b2a3ec035c4544875fc605eae5c373" hidden="1">[1]VSTS_ValidationWS_1!$S$1:$S$5</definedName>
-    <definedName name="VSTS_ValidationRange_9a85e3c1f25a41df98858cebe239014d" hidden="1">[5]VSTS_ValidationWS_1!$U$1:$U$5</definedName>
-    <definedName name="VSTS_ValidationRange_b75f49c102ca4533b536a44ea7447fe8" hidden="1">[1]VSTS_ValidationWS_1!$R$1:$R$2</definedName>
-    <definedName name="VSTS_ValidationRange_cd27e7477c694b9d871cd7044203b281" hidden="1">[2]VSTS_ValidationWS_1!$V$1:$V$2</definedName>
-    <definedName name="VSTS_ValidationRange_d88000083b804b67aeda07421d6a25f2" hidden="1">[3]VSTS_ValidationWS_1!$V$1:$V$2</definedName>
-    <definedName name="VSTS_ValidationRange_dbbf8660dfe74603825fdcadd64fe12f" hidden="1">[4]VSTS_ValidationWS_1!$U$1:$U$5</definedName>
-    <definedName name="VSTS_ValidationRange_ee8f4c27f4634838aa242925e8e65999" hidden="1">[2]VSTS_ValidationWS_1!$U$1:$U$5</definedName>
+    <definedName name="VSTS_ValidationRange_152e2e2d08524f88a67aec3420ab1b62" hidden="1">[1]VSTS_ValidationWS_1!$W$1:$W$4</definedName>
+    <definedName name="VSTS_ValidationRange_193a5843bf6a4c2284021f22cda814c1" hidden="1">[2]VSTS_ValidationWS_1!$V$1:$V$2</definedName>
+    <definedName name="VSTS_ValidationRange_2040ef8c211146f796b367afa04d1f99" hidden="1">[1]VSTS_ValidationWS_1!$U$1:$U$5</definedName>
+    <definedName name="VSTS_ValidationRange_2dfa5e8026e549c59d4ab788a36197e5" hidden="1">[3]VSTS_ValidationWS_1!$V$1:$V$2</definedName>
+    <definedName name="VSTS_ValidationRange_5e9dacfdf4d24a3ca203f02b6bbca412" hidden="1">[2]VSTS_ValidationWS_1!$G$1:$G$4</definedName>
+    <definedName name="VSTS_ValidationRange_84b2a3ec035c4544875fc605eae5c373" hidden="1">[4]VSTS_ValidationWS_1!$S$1:$S$5</definedName>
+    <definedName name="VSTS_ValidationRange_9a85e3c1f25a41df98858cebe239014d" hidden="1">[2]VSTS_ValidationWS_1!$U$1:$U$5</definedName>
+    <definedName name="VSTS_ValidationRange_b75f49c102ca4533b536a44ea7447fe8" hidden="1">[4]VSTS_ValidationWS_1!$R$1:$R$2</definedName>
+    <definedName name="VSTS_ValidationRange_cd27e7477c694b9d871cd7044203b281" hidden="1">[5]VSTS_ValidationWS_1!$V$1:$V$2</definedName>
+    <definedName name="VSTS_ValidationRange_d88000083b804b67aeda07421d6a25f2" hidden="1">[1]VSTS_ValidationWS_1!$V$1:$V$2</definedName>
+    <definedName name="VSTS_ValidationRange_dbbf8660dfe74603825fdcadd64fe12f" hidden="1">[3]VSTS_ValidationWS_1!$U$1:$U$5</definedName>
+    <definedName name="VSTS_ValidationRange_ee8f4c27f4634838aa242925e8e65999" hidden="1">[5]VSTS_ValidationWS_1!$U$1:$U$5</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2256" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2252" uniqueCount="538">
   <si>
     <t>ID</t>
   </si>
@@ -172,15 +172,9 @@
     <t>Azure Readiness Guide</t>
   </si>
   <si>
-    <t>CAF Migrate Landing Zone blueprint</t>
-  </si>
-  <si>
     <t>Landing zone considerations</t>
   </si>
   <si>
-    <t>Deploy the modified blueprint</t>
-  </si>
-  <si>
     <t>Cloud Innovation</t>
   </si>
   <si>
@@ -1679,6 +1673,9 @@
   </si>
   <si>
     <t>Cloud adoption plan for the deployment to Azure DevOps - Cloud Adoption Framework | Microsoft Docs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deploy the landing zone </t>
   </si>
 </sst>
 </file>
@@ -1749,14 +1746,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1937,103 +1930,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="CAF-Cloud Adoption Plan"/>
-      <sheetName val="Strategy-Plan-Ready-Govern"/>
-      <sheetName val="VSTS_ValidationWS_1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2">
-        <row r="1">
-          <cell r="R1" t="str">
-            <v>Select User...</v>
-          </cell>
-          <cell r="S1" t="str">
-            <v>Active</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="R2" t="str">
-            <v>Jonathan Vella</v>
-          </cell>
-          <cell r="S2" t="str">
-            <v>Closed</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="S3" t="str">
-            <v>New</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="S4" t="str">
-            <v>Removed</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="S5" t="str">
-            <v>Resolved</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="VSTS_ValidationWS_1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1">
-        <row r="1">
-          <cell r="U1" t="str">
-            <v>Active</v>
-          </cell>
-          <cell r="V1" t="str">
-            <v>Architectural</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="U2" t="str">
-            <v>Closed</v>
-          </cell>
-          <cell r="V2" t="str">
-            <v>Business</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="U3" t="str">
-            <v>New</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="U4" t="str">
-            <v>Removed</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="U5" t="str">
-            <v>Resolved</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2091,55 +1988,8 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="VSTS_ValidationWS_1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1">
-        <row r="1">
-          <cell r="U1" t="str">
-            <v>Active</v>
-          </cell>
-          <cell r="V1" t="str">
-            <v>Architectural</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="U2" t="str">
-            <v>Closed</v>
-          </cell>
-          <cell r="V2" t="str">
-            <v>Business</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="U3" t="str">
-            <v>New</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="U4" t="str">
-            <v>Removed</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="U5" t="str">
-            <v>Resolved</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2197,9 +2047,152 @@
 </externalLink>
 </file>
 
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="VSTS_ValidationWS_1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1">
+        <row r="1">
+          <cell r="U1" t="str">
+            <v>Active</v>
+          </cell>
+          <cell r="V1" t="str">
+            <v>Architectural</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="U2" t="str">
+            <v>Closed</v>
+          </cell>
+          <cell r="V2" t="str">
+            <v>Business</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="U3" t="str">
+            <v>New</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="U4" t="str">
+            <v>Removed</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="U5" t="str">
+            <v>Resolved</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="CAF-Cloud Adoption Plan"/>
+      <sheetName val="Strategy-Plan-Ready-Govern"/>
+      <sheetName val="VSTS_ValidationWS_1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2">
+        <row r="1">
+          <cell r="R1" t="str">
+            <v>Select User...</v>
+          </cell>
+          <cell r="S1" t="str">
+            <v>Active</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="R2" t="str">
+            <v>Jonathan Vella</v>
+          </cell>
+          <cell r="S2" t="str">
+            <v>Closed</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="S3" t="str">
+            <v>New</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="S4" t="str">
+            <v>Removed</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="S5" t="str">
+            <v>Resolved</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="VSTS_ValidationWS_1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1">
+        <row r="1">
+          <cell r="U1" t="str">
+            <v>Active</v>
+          </cell>
+          <cell r="V1" t="str">
+            <v>Architectural</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="U2" t="str">
+            <v>Closed</v>
+          </cell>
+          <cell r="V2" t="str">
+            <v>Business</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="U3" t="str">
+            <v>New</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="U4" t="str">
+            <v>Removed</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="U5" t="str">
+            <v>Resolved</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6636D825-1793-4A0C-AD54-ABDECC50F862}" name="deleted_VSTS_67e0eab0_e88e_4aa0_b51f_40f782fdac04" displayName="deleted_VSTS_67e0eab0_e88e_4aa0_b51f_40f782fdac04" ref="A2:I95" totalsRowShown="0">
-  <autoFilter ref="A2:I95" xr:uid="{6636D825-1793-4A0C-AD54-ABDECC50F862}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6636D825-1793-4A0C-AD54-ABDECC50F862}" name="deleted_VSTS_67e0eab0_e88e_4aa0_b51f_40f782fdac04" displayName="deleted_VSTS_67e0eab0_e88e_4aa0_b51f_40f782fdac04" ref="A2:I94" totalsRowShown="0">
+  <autoFilter ref="A2:I94" xr:uid="{6636D825-1793-4A0C-AD54-ABDECC50F862}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{214C37B4-3A29-4394-AFB8-A05EE53C8616}" name="ID" dataDxfId="50"/>
     <tableColumn id="2" xr3:uid="{76472D47-917A-470B-AEB9-B485CD1E2745}" name="Work Item Type" dataDxfId="49"/>
@@ -2592,119 +2585,119 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DEEACC4-3FA5-4FF5-BBC7-85466E3D2C95}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P40" sqref="P40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
-        <v>520</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>538</v>
+      <c r="A1" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>537</v>
-      </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
+      <c r="A14" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>524</v>
+      <c r="A16" s="5" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
   </sheetData>
@@ -2717,10 +2710,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E117EC6-B060-4A03-A84E-F7088CE27941}">
-  <dimension ref="A1:I95"/>
+  <dimension ref="A1:I94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T32" sqref="T32"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2736,14 +2729,6 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -3175,7 +3160,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>15</v>
@@ -3196,7 +3181,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>15</v>
@@ -3204,7 +3189,7 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
-        <v>37</v>
+        <v>537</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -3217,28 +3202,28 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>85</v>
+        <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="D24" s="1"/>
-      <c r="E24" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I24" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>9</v>
@@ -3259,15 +3244,15 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -3275,33 +3260,33 @@
         <v>11</v>
       </c>
       <c r="I26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C27" s="1"/>
-      <c r="D27" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I27" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>27</v>
@@ -3309,7 +3294,7 @@
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
@@ -3317,12 +3302,12 @@
         <v>11</v>
       </c>
       <c r="I28" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>27</v>
@@ -3330,7 +3315,7 @@
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
@@ -3338,12 +3323,12 @@
         <v>11</v>
       </c>
       <c r="I29" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>27</v>
@@ -3351,7 +3336,7 @@
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
@@ -3359,12 +3344,12 @@
         <v>11</v>
       </c>
       <c r="I30" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>27</v>
@@ -3372,7 +3357,7 @@
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -3380,75 +3365,75 @@
         <v>11</v>
       </c>
       <c r="I31" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>63</v>
+        <v>7</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="D32" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I32" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>7</v>
+        <v>79</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C33" s="1"/>
-      <c r="D33" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I33" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
-      <c r="E34" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I34" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>27</v>
@@ -3457,19 +3442,19 @@
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I35" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>27</v>
@@ -3478,61 +3463,61 @@
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I36" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1" t="s">
-        <v>53</v>
-      </c>
+      <c r="E37" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I37" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
-      <c r="E38" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I38" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>27</v>
@@ -3541,19 +3526,19 @@
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I39" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>27</v>
@@ -3562,19 +3547,19 @@
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I40" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>27</v>
@@ -3583,19 +3568,19 @@
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I41" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>27</v>
@@ -3604,61 +3589,61 @@
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G42" s="1"/>
       <c r="H42" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I42" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1" t="s">
-        <v>59</v>
-      </c>
+      <c r="E43" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I43" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
-      <c r="E44" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="G44" s="1"/>
       <c r="H44" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I44" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>27</v>
@@ -3667,82 +3652,82 @@
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G45" s="1"/>
       <c r="H45" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I45" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
+      <c r="D46" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="E46" s="1"/>
-      <c r="F46" s="1" t="s">
-        <v>62</v>
-      </c>
+      <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I46" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C47" s="1"/>
-      <c r="D47" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I47" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
-      <c r="E48" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="G48" s="1"/>
       <c r="H48" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I48" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>27</v>
@@ -3751,19 +3736,19 @@
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G49" s="1"/>
       <c r="H49" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I49" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>27</v>
@@ -3772,61 +3757,61 @@
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G50" s="1"/>
       <c r="H50" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I50" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="E51" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I51" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
-      <c r="E52" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="G52" s="1"/>
       <c r="H52" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I52" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>27</v>
@@ -3835,19 +3820,19 @@
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G53" s="1"/>
       <c r="H53" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I53" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>27</v>
@@ -3856,19 +3841,19 @@
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G54" s="1"/>
       <c r="H54" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I54" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>27</v>
@@ -3877,19 +3862,19 @@
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G55" s="1"/>
       <c r="H55" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I55" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>27</v>
@@ -3898,61 +3883,61 @@
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G56" s="1"/>
       <c r="H56" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I56" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1" t="s">
-        <v>72</v>
-      </c>
+      <c r="E57" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I57" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
-      <c r="E58" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="G58" s="1"/>
       <c r="H58" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I58" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>27</v>
@@ -3961,19 +3946,19 @@
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G59" s="1"/>
       <c r="H59" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I59" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>27</v>
@@ -3982,19 +3967,19 @@
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G60" s="1"/>
       <c r="H60" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I60" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>27</v>
@@ -4003,19 +3988,19 @@
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G61" s="1"/>
       <c r="H61" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I61" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>27</v>
@@ -4024,61 +4009,61 @@
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G62" s="1"/>
       <c r="H62" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I62" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1" t="s">
-        <v>78</v>
-      </c>
+      <c r="E63" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F63" s="1"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I63" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
-      <c r="E64" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="G64" s="1"/>
       <c r="H64" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I64" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>27</v>
@@ -4087,19 +4072,19 @@
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G65" s="1"/>
       <c r="H65" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I65" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>27</v>
@@ -4108,19 +4093,19 @@
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G66" s="1"/>
       <c r="H66" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I66" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>27</v>
@@ -4129,19 +4114,19 @@
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G67" s="1"/>
       <c r="H67" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I67" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>27</v>
@@ -4150,61 +4135,61 @@
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G68" s="1"/>
       <c r="H68" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I68" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1" t="s">
+      <c r="E69" s="1" t="s">
         <v>78</v>
       </c>
+      <c r="F69" s="1"/>
       <c r="G69" s="1"/>
       <c r="H69" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I69" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
-      <c r="E70" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="G70" s="1"/>
       <c r="H70" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I70" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>27</v>
@@ -4213,19 +4198,19 @@
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G71" s="1"/>
       <c r="H71" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I71" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>27</v>
@@ -4234,19 +4219,19 @@
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G72" s="1"/>
       <c r="H72" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I72" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>27</v>
@@ -4255,19 +4240,19 @@
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G73" s="1"/>
       <c r="H73" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I73" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>27</v>
@@ -4276,61 +4261,61 @@
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G74" s="1"/>
       <c r="H74" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I74" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="1" t="s">
-        <v>78</v>
-      </c>
+      <c r="E75" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F75" s="1"/>
       <c r="G75" s="1"/>
       <c r="H75" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I75" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
-      <c r="E76" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="G76" s="1"/>
       <c r="H76" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I76" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>27</v>
@@ -4339,19 +4324,19 @@
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G77" s="1"/>
       <c r="H77" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I77" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>27</v>
@@ -4360,19 +4345,19 @@
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G78" s="1"/>
       <c r="H78" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I78" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>27</v>
@@ -4381,61 +4366,61 @@
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G79" s="1"/>
       <c r="H79" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I79" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
-      <c r="F80" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="E80" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F80" s="1"/>
       <c r="G80" s="1"/>
       <c r="H80" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I80" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
-      <c r="E81" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="G81" s="1"/>
       <c r="H81" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I81" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>27</v>
@@ -4444,19 +4429,19 @@
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G82" s="1"/>
       <c r="H82" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I82" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>27</v>
@@ -4465,19 +4450,19 @@
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G83" s="1"/>
       <c r="H83" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I83" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>27</v>
@@ -4486,61 +4471,61 @@
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G84" s="1"/>
       <c r="H84" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I84" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
-      <c r="E85" s="1"/>
-      <c r="F85" s="1" t="s">
-        <v>90</v>
-      </c>
+      <c r="E85" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F85" s="1"/>
       <c r="G85" s="1"/>
       <c r="H85" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I85" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
-      <c r="E86" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="G86" s="1"/>
       <c r="H86" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I86" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>27</v>
@@ -4549,19 +4534,19 @@
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G87" s="1"/>
       <c r="H87" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I87" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>27</v>
@@ -4570,19 +4555,19 @@
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
       <c r="F88" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G88" s="1"/>
       <c r="H88" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I88" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>27</v>
@@ -4591,19 +4576,19 @@
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
       <c r="F89" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G89" s="1"/>
       <c r="H89" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I89" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>27</v>
@@ -4612,61 +4597,61 @@
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G90" s="1"/>
       <c r="H90" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I90" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
-      <c r="E91" s="1"/>
-      <c r="F91" s="1" t="s">
-        <v>96</v>
-      </c>
+      <c r="E91" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F91" s="1"/>
       <c r="G91" s="1"/>
       <c r="H91" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I91" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
-      <c r="E92" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="G92" s="1"/>
       <c r="H92" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I92" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>27</v>
@@ -4675,19 +4660,19 @@
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G93" s="1"/>
       <c r="H93" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I93" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>27</v>
@@ -4696,35 +4681,14 @@
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G94" s="1"/>
       <c r="H94" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I94" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" s="2">
-        <v>58</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
-      <c r="E95" s="1"/>
-      <c r="F95" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="G95" s="1"/>
-      <c r="H95" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I95" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -4739,8 +4703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB812E38-86F8-40FE-8369-9D6276D283D3}">
   <dimension ref="A1:K238"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4757,7 +4721,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5"/>
+      <c r="A1" s="3"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -4782,13 +4746,13 @@
         <v>7</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>327</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>329</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>8</v>
@@ -4812,7 +4776,7 @@
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K3" t="s">
         <v>12</v>
@@ -4837,7 +4801,7 @@
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K4" t="s">
         <v>12</v>
@@ -4852,14 +4816,14 @@
       </c>
       <c r="C5" s="1"/>
       <c r="E5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K5" t="s">
         <v>12</v>
@@ -4874,14 +4838,14 @@
       </c>
       <c r="C6" s="1"/>
       <c r="E6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K6" t="s">
         <v>12</v>
@@ -4896,7 +4860,7 @@
       </c>
       <c r="C7" s="1"/>
       <c r="F7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>11</v>
@@ -4916,7 +4880,7 @@
       </c>
       <c r="C8" s="1"/>
       <c r="F8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>11</v>
@@ -4936,7 +4900,7 @@
       </c>
       <c r="C9" s="1"/>
       <c r="F9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>11</v>
@@ -4956,14 +4920,14 @@
       </c>
       <c r="C10" s="1"/>
       <c r="E10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K10" t="s">
         <v>12</v>
@@ -4978,7 +4942,7 @@
       </c>
       <c r="C11" s="1"/>
       <c r="F11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>11</v>
@@ -4998,14 +4962,14 @@
       </c>
       <c r="C12" s="1"/>
       <c r="E12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K12" t="s">
         <v>12</v>
@@ -5020,7 +4984,7 @@
       </c>
       <c r="C13" s="1"/>
       <c r="F13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>11</v>
@@ -5040,14 +5004,14 @@
       </c>
       <c r="C14" s="1"/>
       <c r="E14" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K14" t="s">
         <v>12</v>
@@ -5071,7 +5035,7 @@
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K15" t="s">
         <v>21</v>
@@ -5086,7 +5050,7 @@
       </c>
       <c r="C16" s="1"/>
       <c r="D16" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>11</v>
@@ -5096,7 +5060,7 @@
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K16" t="s">
         <v>21</v>
@@ -5111,14 +5075,14 @@
       </c>
       <c r="C17" s="1"/>
       <c r="E17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K17" t="s">
         <v>21</v>
@@ -5133,7 +5097,7 @@
       </c>
       <c r="C18" s="1"/>
       <c r="F18" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>11</v>
@@ -5153,7 +5117,7 @@
       </c>
       <c r="C19" s="1"/>
       <c r="F19" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>11</v>
@@ -5173,7 +5137,7 @@
       </c>
       <c r="C20" s="1"/>
       <c r="F20" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>11</v>
@@ -5193,14 +5157,14 @@
       </c>
       <c r="C21" s="1"/>
       <c r="E21" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K21" t="s">
         <v>21</v>
@@ -5215,7 +5179,7 @@
       </c>
       <c r="C22" s="1"/>
       <c r="F22" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>11</v>
@@ -5235,7 +5199,7 @@
       </c>
       <c r="C23" s="1"/>
       <c r="F23" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>11</v>
@@ -5255,7 +5219,7 @@
       </c>
       <c r="C24" s="1"/>
       <c r="F24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>11</v>
@@ -5275,14 +5239,14 @@
       </c>
       <c r="C25" s="1"/>
       <c r="E25" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K25" t="s">
         <v>21</v>
@@ -5297,7 +5261,7 @@
       </c>
       <c r="C26" s="1"/>
       <c r="F26" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>11</v>
@@ -5317,7 +5281,7 @@
       </c>
       <c r="C27" s="1"/>
       <c r="F27" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>11</v>
@@ -5337,7 +5301,7 @@
       </c>
       <c r="C28" s="1"/>
       <c r="F28" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>11</v>
@@ -5366,7 +5330,7 @@
       </c>
       <c r="I29" s="2"/>
       <c r="J29" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K29" t="s">
         <v>33</v>
@@ -5381,7 +5345,7 @@
       </c>
       <c r="C30" s="1"/>
       <c r="D30" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>11</v>
@@ -5391,7 +5355,7 @@
       </c>
       <c r="I30" s="2"/>
       <c r="J30" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K30" t="s">
         <v>33</v>
@@ -5406,14 +5370,14 @@
       </c>
       <c r="C31" s="1"/>
       <c r="E31" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I31" s="2"/>
       <c r="J31" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K31" t="s">
         <v>33</v>
@@ -5428,7 +5392,7 @@
       </c>
       <c r="C32" s="1"/>
       <c r="F32" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>11</v>
@@ -5448,7 +5412,7 @@
       </c>
       <c r="C33" s="1"/>
       <c r="F33" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>11</v>
@@ -5468,7 +5432,7 @@
       </c>
       <c r="C34" s="1"/>
       <c r="F34" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>11</v>
@@ -5488,7 +5452,7 @@
       </c>
       <c r="C35" s="1"/>
       <c r="F35" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>11</v>
@@ -5508,7 +5472,7 @@
       </c>
       <c r="C36" s="1"/>
       <c r="F36" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>11</v>
@@ -5528,7 +5492,7 @@
       </c>
       <c r="C37" s="1"/>
       <c r="F37" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>11</v>
@@ -5548,7 +5512,7 @@
       </c>
       <c r="C38" s="1"/>
       <c r="F38" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>11</v>
@@ -5568,7 +5532,7 @@
       </c>
       <c r="C39" s="1"/>
       <c r="F39" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>11</v>
@@ -5588,7 +5552,7 @@
       </c>
       <c r="C40" s="1"/>
       <c r="F40" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>11</v>
@@ -5608,7 +5572,7 @@
       </c>
       <c r="C41" s="1"/>
       <c r="F41" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>11</v>
@@ -5628,7 +5592,7 @@
       </c>
       <c r="C42" s="1"/>
       <c r="F42" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>11</v>
@@ -5648,7 +5612,7 @@
       </c>
       <c r="C43" s="1"/>
       <c r="F43" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>11</v>
@@ -5668,7 +5632,7 @@
       </c>
       <c r="C44" s="1"/>
       <c r="F44" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>11</v>
@@ -5688,7 +5652,7 @@
       </c>
       <c r="C45" s="1"/>
       <c r="F45" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>11</v>
@@ -5708,14 +5672,14 @@
       </c>
       <c r="C46" s="1"/>
       <c r="E46" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I46" s="2"/>
       <c r="J46" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K46" t="s">
         <v>33</v>
@@ -5730,7 +5694,7 @@
       </c>
       <c r="C47" s="1"/>
       <c r="F47" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>11</v>
@@ -5750,7 +5714,7 @@
       </c>
       <c r="C48" s="1"/>
       <c r="F48" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>11</v>
@@ -5770,7 +5734,7 @@
       </c>
       <c r="C49" s="1"/>
       <c r="F49" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>11</v>
@@ -5790,7 +5754,7 @@
       </c>
       <c r="C50" s="1"/>
       <c r="D50" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>11</v>
@@ -5800,7 +5764,7 @@
       </c>
       <c r="I50" s="2"/>
       <c r="J50" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K50" t="s">
         <v>33</v>
@@ -5815,14 +5779,14 @@
       </c>
       <c r="C51" s="1"/>
       <c r="E51" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I51" s="2"/>
       <c r="J51" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K51" t="s">
         <v>33</v>
@@ -5837,7 +5801,7 @@
       </c>
       <c r="C52" s="1"/>
       <c r="F52" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>11</v>
@@ -5857,7 +5821,7 @@
       </c>
       <c r="C53" s="1"/>
       <c r="F53" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>11</v>
@@ -5877,7 +5841,7 @@
       </c>
       <c r="C54" s="1"/>
       <c r="F54" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>11</v>
@@ -5897,7 +5861,7 @@
       </c>
       <c r="C55" s="1"/>
       <c r="F55" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>11</v>
@@ -5917,7 +5881,7 @@
       </c>
       <c r="C56" s="1"/>
       <c r="F56" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>11</v>
@@ -5937,7 +5901,7 @@
       </c>
       <c r="C57" s="1"/>
       <c r="F57" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>11</v>
@@ -5957,7 +5921,7 @@
       </c>
       <c r="C58" s="1"/>
       <c r="F58" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>11</v>
@@ -5977,7 +5941,7 @@
       </c>
       <c r="C59" s="1"/>
       <c r="F59" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>11</v>
@@ -5997,7 +5961,7 @@
       </c>
       <c r="C60" s="1"/>
       <c r="F60" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>11</v>
@@ -6017,7 +5981,7 @@
       </c>
       <c r="C61" s="1"/>
       <c r="F61" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>11</v>
@@ -6037,7 +6001,7 @@
       </c>
       <c r="C62" s="1"/>
       <c r="F62" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>11</v>
@@ -6057,14 +6021,14 @@
       </c>
       <c r="C63" s="1"/>
       <c r="E63" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I63" s="2"/>
       <c r="J63" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K63" t="s">
         <v>33</v>
@@ -6079,7 +6043,7 @@
       </c>
       <c r="C64" s="1"/>
       <c r="F64" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>11</v>
@@ -6099,7 +6063,7 @@
       </c>
       <c r="C65" s="1"/>
       <c r="F65" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>11</v>
@@ -6119,7 +6083,7 @@
       </c>
       <c r="C66" s="1"/>
       <c r="F66" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>11</v>
@@ -6139,7 +6103,7 @@
       </c>
       <c r="C67" s="1"/>
       <c r="F67" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>11</v>
@@ -6159,14 +6123,14 @@
       </c>
       <c r="C68" s="1"/>
       <c r="E68" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I68" s="2"/>
       <c r="J68" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K68" t="s">
         <v>33</v>
@@ -6181,7 +6145,7 @@
       </c>
       <c r="C69" s="1"/>
       <c r="F69" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>11</v>
@@ -6201,7 +6165,7 @@
       </c>
       <c r="C70" s="1"/>
       <c r="F70" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>11</v>
@@ -6221,7 +6185,7 @@
       </c>
       <c r="C71" s="1"/>
       <c r="F71" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>11</v>
@@ -6241,7 +6205,7 @@
       </c>
       <c r="C72" s="1"/>
       <c r="F72" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>11</v>
@@ -6261,7 +6225,7 @@
       </c>
       <c r="C73" s="1"/>
       <c r="F73" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>11</v>
@@ -6281,7 +6245,7 @@
       </c>
       <c r="C74" s="1"/>
       <c r="F74" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>11</v>
@@ -6301,7 +6265,7 @@
       </c>
       <c r="C75" s="1"/>
       <c r="F75" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>11</v>
@@ -6321,7 +6285,7 @@
       </c>
       <c r="C76" s="1"/>
       <c r="F76" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>11</v>
@@ -6341,7 +6305,7 @@
       </c>
       <c r="C77" s="1"/>
       <c r="F77" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>11</v>
@@ -6361,7 +6325,7 @@
       </c>
       <c r="C78" s="1"/>
       <c r="F78" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>11</v>
@@ -6381,14 +6345,14 @@
       </c>
       <c r="C79" s="1"/>
       <c r="E79" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I79" s="2"/>
       <c r="J79" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K79" t="s">
         <v>33</v>
@@ -6403,7 +6367,7 @@
       </c>
       <c r="C80" s="1"/>
       <c r="F80" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>11</v>
@@ -6423,7 +6387,7 @@
       </c>
       <c r="C81" s="1"/>
       <c r="F81" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>11</v>
@@ -6443,7 +6407,7 @@
       </c>
       <c r="C82" s="1"/>
       <c r="F82" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>11</v>
@@ -6463,7 +6427,7 @@
       </c>
       <c r="C83" s="1"/>
       <c r="F83" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G83" s="1" t="s">
         <v>11</v>
@@ -6483,7 +6447,7 @@
       </c>
       <c r="C84" s="1"/>
       <c r="F84" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>11</v>
@@ -6503,7 +6467,7 @@
       </c>
       <c r="C85" s="1"/>
       <c r="F85" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>11</v>
@@ -6523,7 +6487,7 @@
       </c>
       <c r="C86" s="1"/>
       <c r="F86" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G86" s="1" t="s">
         <v>11</v>
@@ -6543,7 +6507,7 @@
       </c>
       <c r="C87" s="1"/>
       <c r="F87" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G87" s="1" t="s">
         <v>11</v>
@@ -6563,7 +6527,7 @@
       </c>
       <c r="C88" s="1"/>
       <c r="F88" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G88" s="1" t="s">
         <v>11</v>
@@ -6583,7 +6547,7 @@
       </c>
       <c r="C89" s="1"/>
       <c r="F89" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G89" s="1" t="s">
         <v>11</v>
@@ -6603,7 +6567,7 @@
       </c>
       <c r="C90" s="1"/>
       <c r="F90" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G90" s="1" t="s">
         <v>11</v>
@@ -6623,7 +6587,7 @@
       </c>
       <c r="C91" s="1"/>
       <c r="F91" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>11</v>
@@ -6643,7 +6607,7 @@
       </c>
       <c r="C92" s="1"/>
       <c r="F92" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G92" s="1" t="s">
         <v>11</v>
@@ -6663,7 +6627,7 @@
       </c>
       <c r="C93" s="1"/>
       <c r="F93" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G93" s="1" t="s">
         <v>11</v>
@@ -6683,7 +6647,7 @@
       </c>
       <c r="C94" s="1"/>
       <c r="F94" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G94" s="1" t="s">
         <v>11</v>
@@ -6703,7 +6667,7 @@
       </c>
       <c r="C95" s="1"/>
       <c r="F95" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G95" s="1" t="s">
         <v>11</v>
@@ -6723,7 +6687,7 @@
       </c>
       <c r="C96" s="1"/>
       <c r="F96" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G96" s="1" t="s">
         <v>11</v>
@@ -6743,7 +6707,7 @@
       </c>
       <c r="C97" s="1"/>
       <c r="F97" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G97" s="1" t="s">
         <v>11</v>
@@ -6763,7 +6727,7 @@
       </c>
       <c r="C98" s="1"/>
       <c r="F98" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G98" s="1" t="s">
         <v>11</v>
@@ -6783,7 +6747,7 @@
       </c>
       <c r="C99" s="1"/>
       <c r="F99" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G99" s="1" t="s">
         <v>11</v>
@@ -6803,7 +6767,7 @@
       </c>
       <c r="C100" s="1"/>
       <c r="F100" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G100" s="1" t="s">
         <v>11</v>
@@ -6823,14 +6787,14 @@
       </c>
       <c r="C101" s="1"/>
       <c r="E101" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G101" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I101" s="2"/>
       <c r="J101" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K101" t="s">
         <v>33</v>
@@ -6845,7 +6809,7 @@
       </c>
       <c r="C102" s="1"/>
       <c r="F102" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G102" s="1" t="s">
         <v>11</v>
@@ -6865,7 +6829,7 @@
       </c>
       <c r="C103" s="1"/>
       <c r="F103" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G103" s="1" t="s">
         <v>11</v>
@@ -6885,7 +6849,7 @@
       </c>
       <c r="C104" s="1"/>
       <c r="F104" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G104" s="1" t="s">
         <v>11</v>
@@ -6905,7 +6869,7 @@
       </c>
       <c r="C105" s="1"/>
       <c r="F105" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G105" s="1" t="s">
         <v>11</v>
@@ -6925,7 +6889,7 @@
       </c>
       <c r="C106" s="1"/>
       <c r="F106" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G106" s="1" t="s">
         <v>11</v>
@@ -6945,7 +6909,7 @@
       </c>
       <c r="C107" s="1"/>
       <c r="F107" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G107" s="1" t="s">
         <v>11</v>
@@ -6965,7 +6929,7 @@
       </c>
       <c r="C108" s="1"/>
       <c r="F108" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G108" s="1" t="s">
         <v>11</v>
@@ -6985,7 +6949,7 @@
       </c>
       <c r="C109" s="1"/>
       <c r="F109" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G109" s="1" t="s">
         <v>11</v>
@@ -7004,7 +6968,7 @@
         <v>9</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G110" s="1" t="s">
         <v>11</v>
@@ -7014,10 +6978,10 @@
       </c>
       <c r="I110" s="2"/>
       <c r="J110" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K110" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
@@ -7029,7 +6993,7 @@
       </c>
       <c r="C111" s="1"/>
       <c r="D111" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G111" s="1" t="s">
         <v>11</v>
@@ -7039,10 +7003,10 @@
       </c>
       <c r="I111" s="2"/>
       <c r="J111" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K111" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
@@ -7054,17 +7018,17 @@
       </c>
       <c r="C112" s="1"/>
       <c r="E112" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G112" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I112" s="2"/>
       <c r="J112" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K112" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
@@ -7076,7 +7040,7 @@
       </c>
       <c r="C113" s="1"/>
       <c r="F113" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G113" s="1" t="s">
         <v>11</v>
@@ -7084,7 +7048,7 @@
       <c r="I113" s="2"/>
       <c r="J113" s="1"/>
       <c r="K113" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
@@ -7096,7 +7060,7 @@
       </c>
       <c r="C114" s="1"/>
       <c r="F114" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G114" s="1" t="s">
         <v>11</v>
@@ -7104,7 +7068,7 @@
       <c r="I114" s="2"/>
       <c r="J114" s="1"/>
       <c r="K114" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
@@ -7116,17 +7080,17 @@
       </c>
       <c r="C115" s="1"/>
       <c r="E115" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G115" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I115" s="2"/>
       <c r="J115" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K115" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
@@ -7138,7 +7102,7 @@
       </c>
       <c r="C116" s="1"/>
       <c r="F116" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G116" s="1" t="s">
         <v>11</v>
@@ -7146,7 +7110,7 @@
       <c r="I116" s="2"/>
       <c r="J116" s="1"/>
       <c r="K116" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
@@ -7158,7 +7122,7 @@
       </c>
       <c r="C117" s="1"/>
       <c r="F117" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G117" s="1" t="s">
         <v>11</v>
@@ -7166,7 +7130,7 @@
       <c r="I117" s="2"/>
       <c r="J117" s="1"/>
       <c r="K117" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
@@ -7178,17 +7142,17 @@
       </c>
       <c r="C118" s="1"/>
       <c r="E118" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G118" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I118" s="2"/>
       <c r="J118" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K118" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
@@ -7200,7 +7164,7 @@
       </c>
       <c r="C119" s="1"/>
       <c r="F119" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G119" s="1" t="s">
         <v>11</v>
@@ -7208,7 +7172,7 @@
       <c r="I119" s="2"/>
       <c r="J119" s="1"/>
       <c r="K119" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
@@ -7220,7 +7184,7 @@
       </c>
       <c r="C120" s="1"/>
       <c r="F120" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G120" s="1" t="s">
         <v>11</v>
@@ -7228,7 +7192,7 @@
       <c r="I120" s="2"/>
       <c r="J120" s="1"/>
       <c r="K120" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
@@ -7240,7 +7204,7 @@
       </c>
       <c r="C121" s="1"/>
       <c r="F121" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G121" s="1" t="s">
         <v>11</v>
@@ -7248,7 +7212,7 @@
       <c r="I121" s="2"/>
       <c r="J121" s="1"/>
       <c r="K121" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
@@ -7260,7 +7224,7 @@
       </c>
       <c r="C122" s="1"/>
       <c r="F122" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G122" s="1" t="s">
         <v>11</v>
@@ -7268,7 +7232,7 @@
       <c r="I122" s="2"/>
       <c r="J122" s="1"/>
       <c r="K122" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
@@ -7280,17 +7244,17 @@
       </c>
       <c r="C123" s="1"/>
       <c r="E123" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G123" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I123" s="2"/>
       <c r="J123" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K123" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
@@ -7302,7 +7266,7 @@
       </c>
       <c r="C124" s="1"/>
       <c r="F124" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G124" s="1" t="s">
         <v>11</v>
@@ -7310,7 +7274,7 @@
       <c r="I124" s="2"/>
       <c r="J124" s="1"/>
       <c r="K124" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
@@ -7322,7 +7286,7 @@
       </c>
       <c r="C125" s="1"/>
       <c r="F125" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G125" s="1" t="s">
         <v>11</v>
@@ -7330,7 +7294,7 @@
       <c r="I125" s="2"/>
       <c r="J125" s="1"/>
       <c r="K125" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
@@ -7342,17 +7306,17 @@
       </c>
       <c r="C126" s="1"/>
       <c r="E126" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G126" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I126" s="2"/>
       <c r="J126" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K126" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
@@ -7364,7 +7328,7 @@
       </c>
       <c r="C127" s="1"/>
       <c r="F127" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G127" s="1" t="s">
         <v>11</v>
@@ -7372,7 +7336,7 @@
       <c r="I127" s="2"/>
       <c r="J127" s="1"/>
       <c r="K127" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
@@ -7384,7 +7348,7 @@
       </c>
       <c r="C128" s="1"/>
       <c r="F128" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G128" s="1" t="s">
         <v>11</v>
@@ -7392,7 +7356,7 @@
       <c r="I128" s="2"/>
       <c r="J128" s="1"/>
       <c r="K128" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
@@ -7404,7 +7368,7 @@
       </c>
       <c r="C129" s="1"/>
       <c r="F129" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G129" s="1" t="s">
         <v>11</v>
@@ -7412,7 +7376,7 @@
       <c r="I129" s="2"/>
       <c r="J129" s="1"/>
       <c r="K129" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
@@ -7424,17 +7388,17 @@
       </c>
       <c r="C130" s="1"/>
       <c r="E130" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G130" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I130" s="2"/>
       <c r="J130" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K130" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
@@ -7446,7 +7410,7 @@
       </c>
       <c r="C131" s="1"/>
       <c r="F131" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G131" s="1" t="s">
         <v>11</v>
@@ -7454,7 +7418,7 @@
       <c r="I131" s="2"/>
       <c r="J131" s="1"/>
       <c r="K131" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
@@ -7466,7 +7430,7 @@
       </c>
       <c r="C132" s="1"/>
       <c r="F132" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G132" s="1" t="s">
         <v>11</v>
@@ -7474,7 +7438,7 @@
       <c r="I132" s="2"/>
       <c r="J132" s="1"/>
       <c r="K132" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
@@ -7486,17 +7450,17 @@
       </c>
       <c r="C133" s="1"/>
       <c r="E133" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G133" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I133" s="2"/>
       <c r="J133" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K133" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
@@ -7508,7 +7472,7 @@
       </c>
       <c r="C134" s="1"/>
       <c r="F134" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G134" s="1" t="s">
         <v>11</v>
@@ -7516,7 +7480,7 @@
       <c r="I134" s="2"/>
       <c r="J134" s="1"/>
       <c r="K134" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
@@ -7528,7 +7492,7 @@
       </c>
       <c r="C135" s="1"/>
       <c r="F135" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G135" s="1" t="s">
         <v>11</v>
@@ -7536,7 +7500,7 @@
       <c r="I135" s="2"/>
       <c r="J135" s="1"/>
       <c r="K135" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
@@ -7548,17 +7512,17 @@
       </c>
       <c r="C136" s="1"/>
       <c r="E136" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G136" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I136" s="2"/>
       <c r="J136" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K136" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
@@ -7570,7 +7534,7 @@
       </c>
       <c r="C137" s="1"/>
       <c r="F137" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G137" s="1" t="s">
         <v>11</v>
@@ -7578,7 +7542,7 @@
       <c r="I137" s="2"/>
       <c r="J137" s="1"/>
       <c r="K137" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
@@ -7590,7 +7554,7 @@
       </c>
       <c r="C138" s="1"/>
       <c r="F138" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G138" s="1" t="s">
         <v>11</v>
@@ -7598,7 +7562,7 @@
       <c r="I138" s="2"/>
       <c r="J138" s="1"/>
       <c r="K138" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
@@ -7610,7 +7574,7 @@
       </c>
       <c r="C139" s="1"/>
       <c r="D139" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G139" s="1" t="s">
         <v>11</v>
@@ -7620,10 +7584,10 @@
       </c>
       <c r="I139" s="2"/>
       <c r="J139" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K139" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
@@ -7635,17 +7599,17 @@
       </c>
       <c r="C140" s="1"/>
       <c r="E140" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G140" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I140" s="2"/>
       <c r="J140" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K140" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
@@ -7657,7 +7621,7 @@
       </c>
       <c r="C141" s="1"/>
       <c r="F141" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G141" s="1" t="s">
         <v>11</v>
@@ -7665,7 +7629,7 @@
       <c r="I141" s="2"/>
       <c r="J141" s="1"/>
       <c r="K141" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
@@ -7677,7 +7641,7 @@
       </c>
       <c r="C142" s="1"/>
       <c r="F142" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G142" s="1" t="s">
         <v>11</v>
@@ -7685,7 +7649,7 @@
       <c r="I142" s="2"/>
       <c r="J142" s="1"/>
       <c r="K142" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
@@ -7697,7 +7661,7 @@
       </c>
       <c r="C143" s="1"/>
       <c r="F143" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G143" s="1" t="s">
         <v>11</v>
@@ -7705,7 +7669,7 @@
       <c r="I143" s="2"/>
       <c r="J143" s="1"/>
       <c r="K143" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
@@ -7717,7 +7681,7 @@
       </c>
       <c r="C144" s="1"/>
       <c r="F144" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G144" s="1" t="s">
         <v>11</v>
@@ -7725,7 +7689,7 @@
       <c r="I144" s="2"/>
       <c r="J144" s="1"/>
       <c r="K144" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
@@ -7737,7 +7701,7 @@
       </c>
       <c r="C145" s="1"/>
       <c r="F145" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G145" s="1" t="s">
         <v>11</v>
@@ -7745,7 +7709,7 @@
       <c r="I145" s="2"/>
       <c r="J145" s="1"/>
       <c r="K145" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
@@ -7757,7 +7721,7 @@
       </c>
       <c r="C146" s="1"/>
       <c r="F146" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G146" s="1" t="s">
         <v>11</v>
@@ -7765,7 +7729,7 @@
       <c r="I146" s="2"/>
       <c r="J146" s="1"/>
       <c r="K146" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
@@ -7777,7 +7741,7 @@
       </c>
       <c r="C147" s="1"/>
       <c r="F147" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G147" s="1" t="s">
         <v>11</v>
@@ -7785,7 +7749,7 @@
       <c r="I147" s="2"/>
       <c r="J147" s="1"/>
       <c r="K147" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
@@ -7797,7 +7761,7 @@
       </c>
       <c r="C148" s="1"/>
       <c r="F148" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G148" s="1" t="s">
         <v>11</v>
@@ -7805,7 +7769,7 @@
       <c r="I148" s="2"/>
       <c r="J148" s="1"/>
       <c r="K148" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
@@ -7817,17 +7781,17 @@
       </c>
       <c r="C149" s="1"/>
       <c r="E149" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G149" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I149" s="2"/>
       <c r="J149" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K149" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
@@ -7839,7 +7803,7 @@
       </c>
       <c r="C150" s="1"/>
       <c r="F150" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G150" s="1" t="s">
         <v>11</v>
@@ -7847,7 +7811,7 @@
       <c r="I150" s="2"/>
       <c r="J150" s="1"/>
       <c r="K150" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
@@ -7859,7 +7823,7 @@
       </c>
       <c r="C151" s="1"/>
       <c r="F151" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G151" s="1" t="s">
         <v>11</v>
@@ -7867,7 +7831,7 @@
       <c r="I151" s="2"/>
       <c r="J151" s="1"/>
       <c r="K151" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
@@ -7879,7 +7843,7 @@
       </c>
       <c r="C152" s="1"/>
       <c r="F152" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G152" s="1" t="s">
         <v>11</v>
@@ -7887,7 +7851,7 @@
       <c r="I152" s="2"/>
       <c r="J152" s="1"/>
       <c r="K152" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
@@ -7899,7 +7863,7 @@
       </c>
       <c r="C153" s="1"/>
       <c r="F153" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G153" s="1" t="s">
         <v>11</v>
@@ -7907,7 +7871,7 @@
       <c r="I153" s="2"/>
       <c r="J153" s="1"/>
       <c r="K153" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
@@ -7919,7 +7883,7 @@
       </c>
       <c r="C154" s="1"/>
       <c r="F154" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G154" s="1" t="s">
         <v>11</v>
@@ -7927,7 +7891,7 @@
       <c r="I154" s="2"/>
       <c r="J154" s="1"/>
       <c r="K154" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
@@ -7939,17 +7903,17 @@
       </c>
       <c r="C155" s="1"/>
       <c r="E155" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G155" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I155" s="2"/>
       <c r="J155" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K155" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
@@ -7961,7 +7925,7 @@
       </c>
       <c r="C156" s="1"/>
       <c r="F156" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G156" s="1" t="s">
         <v>11</v>
@@ -7969,7 +7933,7 @@
       <c r="I156" s="2"/>
       <c r="J156" s="1"/>
       <c r="K156" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
@@ -7981,7 +7945,7 @@
       </c>
       <c r="C157" s="1"/>
       <c r="F157" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G157" s="1" t="s">
         <v>11</v>
@@ -7989,7 +7953,7 @@
       <c r="I157" s="2"/>
       <c r="J157" s="1"/>
       <c r="K157" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
@@ -8001,17 +7965,17 @@
       </c>
       <c r="C158" s="1"/>
       <c r="E158" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G158" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I158" s="2"/>
       <c r="J158" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K158" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
@@ -8023,7 +7987,7 @@
       </c>
       <c r="C159" s="1"/>
       <c r="F159" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G159" s="1" t="s">
         <v>11</v>
@@ -8031,7 +7995,7 @@
       <c r="I159" s="2"/>
       <c r="J159" s="1"/>
       <c r="K159" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
@@ -8043,7 +8007,7 @@
       </c>
       <c r="C160" s="1"/>
       <c r="F160" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G160" s="1" t="s">
         <v>11</v>
@@ -8051,7 +8015,7 @@
       <c r="I160" s="2"/>
       <c r="J160" s="1"/>
       <c r="K160" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
@@ -8063,7 +8027,7 @@
       </c>
       <c r="C161" s="1"/>
       <c r="F161" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G161" s="1" t="s">
         <v>11</v>
@@ -8071,7 +8035,7 @@
       <c r="I161" s="2"/>
       <c r="J161" s="1"/>
       <c r="K161" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
@@ -8083,7 +8047,7 @@
       </c>
       <c r="C162" s="1"/>
       <c r="F162" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G162" s="1" t="s">
         <v>11</v>
@@ -8091,7 +8055,7 @@
       <c r="I162" s="2"/>
       <c r="J162" s="1"/>
       <c r="K162" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
@@ -8103,7 +8067,7 @@
       </c>
       <c r="C163" s="1"/>
       <c r="F163" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G163" s="1" t="s">
         <v>11</v>
@@ -8111,7 +8075,7 @@
       <c r="I163" s="2"/>
       <c r="J163" s="1"/>
       <c r="K163" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
@@ -8123,17 +8087,17 @@
       </c>
       <c r="C164" s="1"/>
       <c r="E164" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G164" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I164" s="2"/>
       <c r="J164" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K164" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
@@ -8145,7 +8109,7 @@
       </c>
       <c r="C165" s="1"/>
       <c r="F165" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G165" s="1" t="s">
         <v>11</v>
@@ -8153,7 +8117,7 @@
       <c r="I165" s="2"/>
       <c r="J165" s="1"/>
       <c r="K165" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
@@ -8165,7 +8129,7 @@
       </c>
       <c r="C166" s="1"/>
       <c r="F166" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G166" s="1" t="s">
         <v>11</v>
@@ -8173,7 +8137,7 @@
       <c r="I166" s="2"/>
       <c r="J166" s="1"/>
       <c r="K166" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
@@ -8185,17 +8149,17 @@
       </c>
       <c r="C167" s="1"/>
       <c r="E167" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G167" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I167" s="2"/>
       <c r="J167" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K167" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
@@ -8207,7 +8171,7 @@
       </c>
       <c r="C168" s="1"/>
       <c r="F168" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G168" s="1" t="s">
         <v>11</v>
@@ -8215,7 +8179,7 @@
       <c r="I168" s="2"/>
       <c r="J168" s="1"/>
       <c r="K168" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
@@ -8227,7 +8191,7 @@
       </c>
       <c r="C169" s="1"/>
       <c r="F169" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G169" s="1" t="s">
         <v>11</v>
@@ -8235,7 +8199,7 @@
       <c r="I169" s="2"/>
       <c r="J169" s="1"/>
       <c r="K169" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
@@ -8247,17 +8211,17 @@
       </c>
       <c r="C170" s="1"/>
       <c r="E170" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G170" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I170" s="2"/>
       <c r="J170" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K170" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
@@ -8269,7 +8233,7 @@
       </c>
       <c r="C171" s="1"/>
       <c r="F171" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G171" s="1" t="s">
         <v>11</v>
@@ -8277,7 +8241,7 @@
       <c r="I171" s="2"/>
       <c r="J171" s="1"/>
       <c r="K171" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
@@ -8289,7 +8253,7 @@
       </c>
       <c r="C172" s="1"/>
       <c r="F172" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G172" s="1" t="s">
         <v>11</v>
@@ -8297,7 +8261,7 @@
       <c r="I172" s="2"/>
       <c r="J172" s="1"/>
       <c r="K172" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
@@ -8309,7 +8273,7 @@
       </c>
       <c r="C173" s="1"/>
       <c r="F173" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G173" s="1" t="s">
         <v>11</v>
@@ -8317,7 +8281,7 @@
       <c r="I173" s="2"/>
       <c r="J173" s="1"/>
       <c r="K173" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
@@ -8329,7 +8293,7 @@
       </c>
       <c r="C174" s="1"/>
       <c r="F174" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G174" s="1" t="s">
         <v>11</v>
@@ -8337,7 +8301,7 @@
       <c r="I174" s="2"/>
       <c r="J174" s="1"/>
       <c r="K174" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
@@ -8349,7 +8313,7 @@
       </c>
       <c r="C175" s="1"/>
       <c r="F175" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G175" s="1" t="s">
         <v>11</v>
@@ -8357,7 +8321,7 @@
       <c r="I175" s="2"/>
       <c r="J175" s="1"/>
       <c r="K175" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
@@ -8369,7 +8333,7 @@
       </c>
       <c r="C176" s="1"/>
       <c r="F176" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G176" s="1" t="s">
         <v>11</v>
@@ -8377,7 +8341,7 @@
       <c r="I176" s="2"/>
       <c r="J176" s="1"/>
       <c r="K176" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
@@ -8389,7 +8353,7 @@
       </c>
       <c r="C177" s="1"/>
       <c r="F177" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G177" s="1" t="s">
         <v>11</v>
@@ -8397,7 +8361,7 @@
       <c r="I177" s="2"/>
       <c r="J177" s="1"/>
       <c r="K177" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
@@ -8409,17 +8373,17 @@
       </c>
       <c r="C178" s="1"/>
       <c r="E178" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G178" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I178" s="2"/>
       <c r="J178" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K178" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
@@ -8431,7 +8395,7 @@
       </c>
       <c r="C179" s="1"/>
       <c r="F179" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G179" s="1" t="s">
         <v>11</v>
@@ -8439,7 +8403,7 @@
       <c r="I179" s="2"/>
       <c r="J179" s="1"/>
       <c r="K179" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
@@ -8451,7 +8415,7 @@
       </c>
       <c r="C180" s="1"/>
       <c r="F180" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G180" s="1" t="s">
         <v>11</v>
@@ -8459,7 +8423,7 @@
       <c r="I180" s="2"/>
       <c r="J180" s="1"/>
       <c r="K180" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
@@ -8471,7 +8435,7 @@
       </c>
       <c r="C181" s="1"/>
       <c r="F181" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G181" s="1" t="s">
         <v>11</v>
@@ -8479,7 +8443,7 @@
       <c r="I181" s="2"/>
       <c r="J181" s="1"/>
       <c r="K181" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
@@ -8491,7 +8455,7 @@
       </c>
       <c r="C182" s="1"/>
       <c r="F182" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G182" s="1" t="s">
         <v>11</v>
@@ -8499,7 +8463,7 @@
       <c r="I182" s="2"/>
       <c r="J182" s="1"/>
       <c r="K182" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
@@ -8511,7 +8475,7 @@
       </c>
       <c r="C183" s="1"/>
       <c r="F183" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G183" s="1" t="s">
         <v>11</v>
@@ -8519,7 +8483,7 @@
       <c r="I183" s="2"/>
       <c r="J183" s="1"/>
       <c r="K183" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
@@ -8531,7 +8495,7 @@
       </c>
       <c r="C184" s="1"/>
       <c r="F184" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G184" s="1" t="s">
         <v>11</v>
@@ -8539,7 +8503,7 @@
       <c r="I184" s="2"/>
       <c r="J184" s="1"/>
       <c r="K184" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
@@ -8551,7 +8515,7 @@
       </c>
       <c r="C185" s="1"/>
       <c r="F185" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G185" s="1" t="s">
         <v>11</v>
@@ -8559,7 +8523,7 @@
       <c r="I185" s="2"/>
       <c r="J185" s="1"/>
       <c r="K185" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
@@ -8571,7 +8535,7 @@
       </c>
       <c r="C186" s="1"/>
       <c r="F186" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G186" s="1" t="s">
         <v>11</v>
@@ -8579,7 +8543,7 @@
       <c r="I186" s="2"/>
       <c r="J186" s="1"/>
       <c r="K186" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
@@ -8591,7 +8555,7 @@
       </c>
       <c r="C187" s="1"/>
       <c r="F187" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G187" s="1" t="s">
         <v>11</v>
@@ -8599,7 +8563,7 @@
       <c r="I187" s="2"/>
       <c r="J187" s="1"/>
       <c r="K187" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
@@ -8611,7 +8575,7 @@
       </c>
       <c r="C188" s="1"/>
       <c r="F188" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G188" s="1" t="s">
         <v>11</v>
@@ -8619,7 +8583,7 @@
       <c r="I188" s="2"/>
       <c r="J188" s="1"/>
       <c r="K188" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
@@ -8631,17 +8595,17 @@
       </c>
       <c r="C189" s="1"/>
       <c r="E189" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G189" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I189" s="2"/>
       <c r="J189" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K189" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
@@ -8653,7 +8617,7 @@
       </c>
       <c r="C190" s="1"/>
       <c r="F190" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G190" s="1" t="s">
         <v>11</v>
@@ -8661,7 +8625,7 @@
       <c r="I190" s="2"/>
       <c r="J190" s="1"/>
       <c r="K190" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.25">
@@ -8673,7 +8637,7 @@
       </c>
       <c r="C191" s="1"/>
       <c r="F191" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="G191" s="1" t="s">
         <v>11</v>
@@ -8681,7 +8645,7 @@
       <c r="I191" s="2"/>
       <c r="J191" s="1"/>
       <c r="K191" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
@@ -8693,7 +8657,7 @@
       </c>
       <c r="C192" s="1"/>
       <c r="F192" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G192" s="1" t="s">
         <v>11</v>
@@ -8701,7 +8665,7 @@
       <c r="I192" s="2"/>
       <c r="J192" s="1"/>
       <c r="K192" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.25">
@@ -8713,7 +8677,7 @@
       </c>
       <c r="C193" s="1"/>
       <c r="F193" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G193" s="1" t="s">
         <v>11</v>
@@ -8721,7 +8685,7 @@
       <c r="I193" s="2"/>
       <c r="J193" s="1"/>
       <c r="K193" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
@@ -8733,7 +8697,7 @@
       </c>
       <c r="C194" s="1"/>
       <c r="F194" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G194" s="1" t="s">
         <v>11</v>
@@ -8741,7 +8705,7 @@
       <c r="I194" s="2"/>
       <c r="J194" s="1"/>
       <c r="K194" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
@@ -8753,7 +8717,7 @@
       </c>
       <c r="C195" s="1"/>
       <c r="F195" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G195" s="1" t="s">
         <v>11</v>
@@ -8761,7 +8725,7 @@
       <c r="I195" s="2"/>
       <c r="J195" s="1"/>
       <c r="K195" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
@@ -8773,7 +8737,7 @@
       </c>
       <c r="C196" s="1"/>
       <c r="F196" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G196" s="1" t="s">
         <v>11</v>
@@ -8781,7 +8745,7 @@
       <c r="I196" s="2"/>
       <c r="J196" s="1"/>
       <c r="K196" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
@@ -8793,7 +8757,7 @@
       </c>
       <c r="C197" s="1"/>
       <c r="F197" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G197" s="1" t="s">
         <v>11</v>
@@ -8801,7 +8765,7 @@
       <c r="I197" s="2"/>
       <c r="J197" s="1"/>
       <c r="K197" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
@@ -8813,7 +8777,7 @@
       </c>
       <c r="C198" s="1"/>
       <c r="F198" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G198" s="1" t="s">
         <v>11</v>
@@ -8821,7 +8785,7 @@
       <c r="I198" s="2"/>
       <c r="J198" s="1"/>
       <c r="K198" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
@@ -8833,7 +8797,7 @@
       </c>
       <c r="C199" s="1"/>
       <c r="F199" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="G199" s="1" t="s">
         <v>11</v>
@@ -8841,7 +8805,7 @@
       <c r="I199" s="2"/>
       <c r="J199" s="1"/>
       <c r="K199" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.25">
@@ -8853,7 +8817,7 @@
       </c>
       <c r="C200" s="1"/>
       <c r="F200" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G200" s="1" t="s">
         <v>11</v>
@@ -8861,7 +8825,7 @@
       <c r="I200" s="2"/>
       <c r="J200" s="1"/>
       <c r="K200" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.25">
@@ -8873,7 +8837,7 @@
       </c>
       <c r="C201" s="1"/>
       <c r="F201" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G201" s="1" t="s">
         <v>11</v>
@@ -8881,7 +8845,7 @@
       <c r="I201" s="2"/>
       <c r="J201" s="1"/>
       <c r="K201" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.25">
@@ -8893,7 +8857,7 @@
       </c>
       <c r="C202" s="1"/>
       <c r="F202" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G202" s="1" t="s">
         <v>11</v>
@@ -8901,7 +8865,7 @@
       <c r="I202" s="2"/>
       <c r="J202" s="1"/>
       <c r="K202" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.25">
@@ -8913,7 +8877,7 @@
       </c>
       <c r="C203" s="1"/>
       <c r="F203" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G203" s="1" t="s">
         <v>11</v>
@@ -8921,7 +8885,7 @@
       <c r="I203" s="2"/>
       <c r="J203" s="1"/>
       <c r="K203" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.25">
@@ -8933,7 +8897,7 @@
       </c>
       <c r="C204" s="1"/>
       <c r="F204" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G204" s="1" t="s">
         <v>11</v>
@@ -8941,7 +8905,7 @@
       <c r="I204" s="2"/>
       <c r="J204" s="1"/>
       <c r="K204" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.25">
@@ -8953,17 +8917,17 @@
       </c>
       <c r="C205" s="1"/>
       <c r="E205" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G205" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I205" s="2"/>
       <c r="J205" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K205" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.25">
@@ -8975,7 +8939,7 @@
       </c>
       <c r="C206" s="1"/>
       <c r="F206" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G206" s="1" t="s">
         <v>11</v>
@@ -8983,7 +8947,7 @@
       <c r="I206" s="2"/>
       <c r="J206" s="1"/>
       <c r="K206" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.25">
@@ -8995,17 +8959,17 @@
       </c>
       <c r="C207" s="1"/>
       <c r="E207" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G207" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I207" s="2"/>
       <c r="J207" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K207" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
@@ -9017,7 +8981,7 @@
       </c>
       <c r="C208" s="1"/>
       <c r="F208" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G208" s="1" t="s">
         <v>11</v>
@@ -9025,7 +8989,7 @@
       <c r="I208" s="2"/>
       <c r="J208" s="1"/>
       <c r="K208" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.25">
@@ -9037,7 +9001,7 @@
       </c>
       <c r="C209" s="1"/>
       <c r="F209" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G209" s="1" t="s">
         <v>11</v>
@@ -9045,7 +9009,7 @@
       <c r="I209" s="2"/>
       <c r="J209" s="1"/>
       <c r="K209" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.25">
@@ -9057,7 +9021,7 @@
       </c>
       <c r="C210" s="1"/>
       <c r="F210" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G210" s="1" t="s">
         <v>11</v>
@@ -9065,7 +9029,7 @@
       <c r="I210" s="2"/>
       <c r="J210" s="1"/>
       <c r="K210" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.25">
@@ -9077,7 +9041,7 @@
       </c>
       <c r="C211" s="1"/>
       <c r="F211" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G211" s="1" t="s">
         <v>11</v>
@@ -9085,7 +9049,7 @@
       <c r="I211" s="2"/>
       <c r="J211" s="1"/>
       <c r="K211" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.25">
@@ -9097,7 +9061,7 @@
       </c>
       <c r="C212" s="1"/>
       <c r="F212" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G212" s="1" t="s">
         <v>11</v>
@@ -9105,7 +9069,7 @@
       <c r="I212" s="2"/>
       <c r="J212" s="1"/>
       <c r="K212" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.25">
@@ -9117,7 +9081,7 @@
       </c>
       <c r="C213" s="1"/>
       <c r="F213" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G213" s="1" t="s">
         <v>11</v>
@@ -9125,7 +9089,7 @@
       <c r="I213" s="2"/>
       <c r="J213" s="1"/>
       <c r="K213" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.25">
@@ -9137,7 +9101,7 @@
       </c>
       <c r="C214" s="1"/>
       <c r="F214" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G214" s="1" t="s">
         <v>11</v>
@@ -9145,7 +9109,7 @@
       <c r="I214" s="2"/>
       <c r="J214" s="1"/>
       <c r="K214" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.25">
@@ -9157,7 +9121,7 @@
       </c>
       <c r="C215" s="1"/>
       <c r="F215" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G215" s="1" t="s">
         <v>11</v>
@@ -9165,7 +9129,7 @@
       <c r="I215" s="2"/>
       <c r="J215" s="1"/>
       <c r="K215" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.25">
@@ -9177,17 +9141,17 @@
       </c>
       <c r="C216" s="1"/>
       <c r="E216" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G216" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I216" s="2"/>
       <c r="J216" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K216" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.25">
@@ -9199,7 +9163,7 @@
       </c>
       <c r="C217" s="1"/>
       <c r="F217" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G217" s="1" t="s">
         <v>11</v>
@@ -9207,7 +9171,7 @@
       <c r="I217" s="2"/>
       <c r="J217" s="1"/>
       <c r="K217" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.25">
@@ -9219,7 +9183,7 @@
       </c>
       <c r="C218" s="1"/>
       <c r="F218" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G218" s="1" t="s">
         <v>11</v>
@@ -9227,7 +9191,7 @@
       <c r="I218" s="2"/>
       <c r="J218" s="1"/>
       <c r="K218" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.25">
@@ -9239,7 +9203,7 @@
       </c>
       <c r="C219" s="1"/>
       <c r="F219" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G219" s="1" t="s">
         <v>11</v>
@@ -9247,7 +9211,7 @@
       <c r="I219" s="2"/>
       <c r="J219" s="1"/>
       <c r="K219" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.25">
@@ -9259,7 +9223,7 @@
       </c>
       <c r="C220" s="1"/>
       <c r="F220" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G220" s="1" t="s">
         <v>11</v>
@@ -9267,7 +9231,7 @@
       <c r="I220" s="2"/>
       <c r="J220" s="1"/>
       <c r="K220" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.25">
@@ -9279,7 +9243,7 @@
       </c>
       <c r="C221" s="1"/>
       <c r="F221" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G221" s="1" t="s">
         <v>11</v>
@@ -9287,7 +9251,7 @@
       <c r="I221" s="2"/>
       <c r="J221" s="1"/>
       <c r="K221" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.25">
@@ -9299,17 +9263,17 @@
       </c>
       <c r="C222" s="1"/>
       <c r="E222" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G222" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I222" s="2"/>
       <c r="J222" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K222" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.25">
@@ -9321,7 +9285,7 @@
       </c>
       <c r="C223" s="1"/>
       <c r="F223" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G223" s="1" t="s">
         <v>11</v>
@@ -9329,7 +9293,7 @@
       <c r="I223" s="2"/>
       <c r="J223" s="1"/>
       <c r="K223" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.25">
@@ -9341,7 +9305,7 @@
       </c>
       <c r="C224" s="1"/>
       <c r="F224" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G224" s="1" t="s">
         <v>11</v>
@@ -9349,7 +9313,7 @@
       <c r="I224" s="2"/>
       <c r="J224" s="1"/>
       <c r="K224" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.25">
@@ -9361,7 +9325,7 @@
       </c>
       <c r="C225" s="1"/>
       <c r="F225" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G225" s="1" t="s">
         <v>11</v>
@@ -9369,7 +9333,7 @@
       <c r="I225" s="2"/>
       <c r="J225" s="1"/>
       <c r="K225" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.25">
@@ -9381,7 +9345,7 @@
       </c>
       <c r="C226" s="1"/>
       <c r="F226" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G226" s="1" t="s">
         <v>11</v>
@@ -9389,7 +9353,7 @@
       <c r="I226" s="2"/>
       <c r="J226" s="1"/>
       <c r="K226" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.25">
@@ -9401,7 +9365,7 @@
       </c>
       <c r="C227" s="1"/>
       <c r="F227" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G227" s="1" t="s">
         <v>11</v>
@@ -9409,7 +9373,7 @@
       <c r="I227" s="2"/>
       <c r="J227" s="1"/>
       <c r="K227" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.25">
@@ -9421,17 +9385,17 @@
       </c>
       <c r="C228" s="1"/>
       <c r="E228" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G228" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I228" s="2"/>
       <c r="J228" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K228" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.25">
@@ -9443,7 +9407,7 @@
       </c>
       <c r="C229" s="1"/>
       <c r="F229" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G229" s="1" t="s">
         <v>11</v>
@@ -9451,7 +9415,7 @@
       <c r="I229" s="2"/>
       <c r="J229" s="1"/>
       <c r="K229" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.25">
@@ -9463,7 +9427,7 @@
       </c>
       <c r="C230" s="1"/>
       <c r="F230" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G230" s="1" t="s">
         <v>11</v>
@@ -9471,7 +9435,7 @@
       <c r="I230" s="2"/>
       <c r="J230" s="1"/>
       <c r="K230" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.25">
@@ -9483,7 +9447,7 @@
       </c>
       <c r="C231" s="1"/>
       <c r="F231" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="G231" s="1" t="s">
         <v>11</v>
@@ -9491,7 +9455,7 @@
       <c r="I231" s="2"/>
       <c r="J231" s="1"/>
       <c r="K231" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.25">
@@ -9503,7 +9467,7 @@
       </c>
       <c r="C232" s="1"/>
       <c r="F232" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G232" s="1" t="s">
         <v>11</v>
@@ -9511,7 +9475,7 @@
       <c r="I232" s="2"/>
       <c r="J232" s="1"/>
       <c r="K232" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.25">
@@ -9523,17 +9487,17 @@
       </c>
       <c r="C233" s="1"/>
       <c r="E233" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="G233" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I233" s="2"/>
       <c r="J233" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K233" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.25">
@@ -9545,7 +9509,7 @@
       </c>
       <c r="C234" s="1"/>
       <c r="F234" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G234" s="1" t="s">
         <v>11</v>
@@ -9553,7 +9517,7 @@
       <c r="I234" s="2"/>
       <c r="J234" s="1"/>
       <c r="K234" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.25">
@@ -9565,7 +9529,7 @@
       </c>
       <c r="C235" s="1"/>
       <c r="F235" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G235" s="1" t="s">
         <v>11</v>
@@ -9573,7 +9537,7 @@
       <c r="I235" s="2"/>
       <c r="J235" s="1"/>
       <c r="K235" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.25">
@@ -9585,7 +9549,7 @@
       </c>
       <c r="C236" s="1"/>
       <c r="F236" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G236" s="1" t="s">
         <v>11</v>
@@ -9593,7 +9557,7 @@
       <c r="I236" s="2"/>
       <c r="J236" s="1"/>
       <c r="K236" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.25">
@@ -9605,7 +9569,7 @@
       </c>
       <c r="C237" s="1"/>
       <c r="F237" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G237" s="1" t="s">
         <v>11</v>
@@ -9613,7 +9577,7 @@
       <c r="I237" s="2"/>
       <c r="J237" s="1"/>
       <c r="K237" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.25">
@@ -9625,7 +9589,7 @@
       </c>
       <c r="C238" s="1"/>
       <c r="F238" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G238" s="1" t="s">
         <v>11</v>
@@ -9633,7 +9597,7 @@
       <c r="I238" s="2"/>
       <c r="J238" s="1"/>
       <c r="K238" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -9648,7 +9612,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4009565F-83C1-4484-8A04-E703D8400C61}">
   <dimension ref="A1:K79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
@@ -9657,7 +9621,7 @@
     <col min="1" max="1" width="10.140625" customWidth="1"/>
     <col min="2" max="2" width="22.5703125" customWidth="1"/>
     <col min="3" max="5" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="30.7109375" customWidth="1"/>
+    <col min="6" max="6" width="85.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.85546875" customWidth="1"/>
     <col min="8" max="8" width="13.28515625" customWidth="1"/>
     <col min="9" max="9" width="21.7109375" customWidth="1"/>
@@ -9667,16 +9631,6 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -9701,13 +9655,13 @@
         <v>7</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>327</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>329</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>8</v>
@@ -9721,7 +9675,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>11</v>
@@ -9731,7 +9685,7 @@
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -9743,7 +9697,7 @@
       </c>
       <c r="C4" s="1"/>
       <c r="D4" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>11</v>
@@ -9753,7 +9707,7 @@
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -9765,14 +9719,14 @@
       </c>
       <c r="C5" s="1"/>
       <c r="E5" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -9784,7 +9738,7 @@
       </c>
       <c r="C6" s="1"/>
       <c r="F6" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>11</v>
@@ -9801,7 +9755,7 @@
       </c>
       <c r="C7" s="1"/>
       <c r="F7" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>11</v>
@@ -9818,7 +9772,7 @@
       </c>
       <c r="C8" s="1"/>
       <c r="F8" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>11</v>
@@ -9835,7 +9789,7 @@
       </c>
       <c r="C9" s="1"/>
       <c r="F9" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>11</v>
@@ -9852,7 +9806,7 @@
       </c>
       <c r="C10" s="1"/>
       <c r="D10" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>11</v>
@@ -9862,7 +9816,7 @@
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -9874,14 +9828,14 @@
       </c>
       <c r="C11" s="1"/>
       <c r="E11" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -9893,7 +9847,7 @@
       </c>
       <c r="C12" s="1"/>
       <c r="F12" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>11</v>
@@ -9910,7 +9864,7 @@
       </c>
       <c r="C13" s="1"/>
       <c r="F13" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>11</v>
@@ -9927,7 +9881,7 @@
       </c>
       <c r="C14" s="1"/>
       <c r="F14" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>11</v>
@@ -9944,7 +9898,7 @@
       </c>
       <c r="C15" s="1"/>
       <c r="F15" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>11</v>
@@ -9961,14 +9915,14 @@
       </c>
       <c r="C16" s="1"/>
       <c r="E16" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -9980,7 +9934,7 @@
       </c>
       <c r="C17" s="1"/>
       <c r="F17" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>11</v>
@@ -9997,7 +9951,7 @@
       </c>
       <c r="C18" s="1"/>
       <c r="F18" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>11</v>
@@ -10014,7 +9968,7 @@
       </c>
       <c r="C19" s="1"/>
       <c r="F19" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>11</v>
@@ -10031,7 +9985,7 @@
       </c>
       <c r="C20" s="1"/>
       <c r="F20" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>11</v>
@@ -10048,7 +10002,7 @@
       </c>
       <c r="C21" s="1"/>
       <c r="D21" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>11</v>
@@ -10058,7 +10012,7 @@
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -10070,14 +10024,14 @@
       </c>
       <c r="C22" s="1"/>
       <c r="E22" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -10089,7 +10043,7 @@
       </c>
       <c r="C23" s="1"/>
       <c r="F23" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>11</v>
@@ -10106,7 +10060,7 @@
       </c>
       <c r="C24" s="1"/>
       <c r="F24" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>11</v>
@@ -10123,7 +10077,7 @@
       </c>
       <c r="C25" s="1"/>
       <c r="F25" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>11</v>
@@ -10140,14 +10094,14 @@
       </c>
       <c r="C26" s="1"/>
       <c r="E26" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -10159,7 +10113,7 @@
       </c>
       <c r="C27" s="1"/>
       <c r="F27" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>11</v>
@@ -10176,7 +10130,7 @@
       </c>
       <c r="C28" s="1"/>
       <c r="F28" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>11</v>
@@ -10193,7 +10147,7 @@
       </c>
       <c r="C29" s="1"/>
       <c r="F29" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>11</v>
@@ -10210,7 +10164,7 @@
       </c>
       <c r="C30" s="1"/>
       <c r="D30" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>11</v>
@@ -10220,7 +10174,7 @@
       </c>
       <c r="I30" s="2"/>
       <c r="J30" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -10232,14 +10186,14 @@
       </c>
       <c r="C31" s="1"/>
       <c r="E31" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I31" s="2"/>
       <c r="J31" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -10251,7 +10205,7 @@
       </c>
       <c r="C32" s="1"/>
       <c r="F32" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>11</v>
@@ -10268,7 +10222,7 @@
       </c>
       <c r="C33" s="1"/>
       <c r="F33" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>11</v>
@@ -10285,7 +10239,7 @@
       </c>
       <c r="C34" s="1"/>
       <c r="F34" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>11</v>
@@ -10302,7 +10256,7 @@
       </c>
       <c r="C35" s="1"/>
       <c r="F35" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>11</v>
@@ -10319,7 +10273,7 @@
       </c>
       <c r="C36" s="1"/>
       <c r="F36" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>11</v>
@@ -10336,14 +10290,14 @@
       </c>
       <c r="C37" s="1"/>
       <c r="E37" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -10355,7 +10309,7 @@
       </c>
       <c r="C38" s="1"/>
       <c r="F38" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>11</v>
@@ -10372,7 +10326,7 @@
       </c>
       <c r="C39" s="1"/>
       <c r="F39" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>11</v>
@@ -10389,7 +10343,7 @@
       </c>
       <c r="C40" s="1"/>
       <c r="F40" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>11</v>
@@ -10406,7 +10360,7 @@
       </c>
       <c r="C41" s="1"/>
       <c r="F41" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>11</v>
@@ -10423,14 +10377,14 @@
       </c>
       <c r="C42" s="1"/>
       <c r="E42" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I42" s="2"/>
       <c r="J42" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -10442,7 +10396,7 @@
       </c>
       <c r="C43" s="1"/>
       <c r="F43" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>11</v>
@@ -10459,7 +10413,7 @@
       </c>
       <c r="C44" s="1"/>
       <c r="F44" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>11</v>
@@ -10476,7 +10430,7 @@
       </c>
       <c r="C45" s="1"/>
       <c r="F45" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>11</v>
@@ -10493,7 +10447,7 @@
       </c>
       <c r="C46" s="1"/>
       <c r="F46" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>11</v>
@@ -10510,14 +10464,14 @@
       </c>
       <c r="C47" s="1"/>
       <c r="E47" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I47" s="2"/>
       <c r="J47" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -10529,7 +10483,7 @@
       </c>
       <c r="C48" s="1"/>
       <c r="F48" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>11</v>
@@ -10546,7 +10500,7 @@
       </c>
       <c r="C49" s="1"/>
       <c r="F49" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>11</v>
@@ -10563,7 +10517,7 @@
       </c>
       <c r="C50" s="1"/>
       <c r="F50" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>11</v>
@@ -10580,7 +10534,7 @@
       </c>
       <c r="C51" s="1"/>
       <c r="F51" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>11</v>
@@ -10597,7 +10551,7 @@
       </c>
       <c r="C52" s="1"/>
       <c r="F52" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>11</v>
@@ -10614,14 +10568,14 @@
       </c>
       <c r="C53" s="1"/>
       <c r="E53" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I53" s="2"/>
       <c r="J53" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -10633,7 +10587,7 @@
       </c>
       <c r="C54" s="1"/>
       <c r="F54" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>11</v>
@@ -10650,7 +10604,7 @@
       </c>
       <c r="C55" s="1"/>
       <c r="F55" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>11</v>
@@ -10667,7 +10621,7 @@
       </c>
       <c r="C56" s="1"/>
       <c r="F56" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>11</v>
@@ -10684,7 +10638,7 @@
       </c>
       <c r="C57" s="1"/>
       <c r="F57" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>11</v>
@@ -10701,7 +10655,7 @@
       </c>
       <c r="C58" s="1"/>
       <c r="F58" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>11</v>
@@ -10718,7 +10672,7 @@
       </c>
       <c r="C59" s="1"/>
       <c r="F59" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>11</v>
@@ -10735,7 +10689,7 @@
       </c>
       <c r="C60" s="1"/>
       <c r="F60" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>11</v>
@@ -10752,7 +10706,7 @@
       </c>
       <c r="C61" s="1"/>
       <c r="F61" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>11</v>
@@ -10769,7 +10723,7 @@
       </c>
       <c r="C62" s="1"/>
       <c r="F62" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>11</v>
@@ -10786,7 +10740,7 @@
       </c>
       <c r="C63" s="1"/>
       <c r="F63" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>11</v>
@@ -10803,7 +10757,7 @@
       </c>
       <c r="C64" s="1"/>
       <c r="F64" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>11</v>
@@ -10820,7 +10774,7 @@
       </c>
       <c r="C65" s="1"/>
       <c r="D65" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>11</v>
@@ -10830,7 +10784,7 @@
       </c>
       <c r="I65" s="2"/>
       <c r="J65" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
@@ -10842,14 +10796,14 @@
       </c>
       <c r="C66" s="1"/>
       <c r="E66" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I66" s="2"/>
       <c r="J66" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
@@ -10861,7 +10815,7 @@
       </c>
       <c r="C67" s="1"/>
       <c r="F67" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>11</v>
@@ -10878,7 +10832,7 @@
       </c>
       <c r="C68" s="1"/>
       <c r="F68" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>11</v>
@@ -10895,7 +10849,7 @@
       </c>
       <c r="C69" s="1"/>
       <c r="F69" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>11</v>
@@ -10912,7 +10866,7 @@
       </c>
       <c r="C70" s="1"/>
       <c r="F70" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>11</v>
@@ -10929,7 +10883,7 @@
       </c>
       <c r="C71" s="1"/>
       <c r="F71" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>11</v>
@@ -10946,14 +10900,14 @@
       </c>
       <c r="C72" s="1"/>
       <c r="E72" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I72" s="2"/>
       <c r="J72" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
@@ -10965,7 +10919,7 @@
       </c>
       <c r="C73" s="1"/>
       <c r="F73" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>11</v>
@@ -10982,7 +10936,7 @@
       </c>
       <c r="C74" s="1"/>
       <c r="F74" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>11</v>
@@ -10999,7 +10953,7 @@
       </c>
       <c r="C75" s="1"/>
       <c r="F75" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>11</v>
@@ -11016,7 +10970,7 @@
       </c>
       <c r="C76" s="1"/>
       <c r="F76" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>11</v>
@@ -11033,14 +10987,14 @@
       </c>
       <c r="C77" s="1"/>
       <c r="E77" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I77" s="2"/>
       <c r="J77" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
@@ -11052,7 +11006,7 @@
       </c>
       <c r="C78" s="1"/>
       <c r="F78" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>11</v>
@@ -11069,7 +11023,7 @@
       </c>
       <c r="C79" s="1"/>
       <c r="F79" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>11</v>
@@ -11108,16 +11062,6 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -11142,13 +11086,13 @@
         <v>7</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>327</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>329</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>8</v>
@@ -11162,7 +11106,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>11</v>
@@ -11172,7 +11116,7 @@
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K3" t="s">
         <v>21</v>
@@ -11187,7 +11131,7 @@
       </c>
       <c r="C4" s="1"/>
       <c r="D4" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>11</v>
@@ -11197,7 +11141,7 @@
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K4" t="s">
         <v>21</v>
@@ -11212,14 +11156,14 @@
       </c>
       <c r="C5" s="1"/>
       <c r="E5" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K5" t="s">
         <v>21</v>
@@ -11234,7 +11178,7 @@
       </c>
       <c r="C6" s="1"/>
       <c r="F6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>11</v>
@@ -11254,7 +11198,7 @@
       </c>
       <c r="C7" s="1"/>
       <c r="F7" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>11</v>
@@ -11274,7 +11218,7 @@
       </c>
       <c r="C8" s="1"/>
       <c r="F8" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>11</v>
@@ -11294,7 +11238,7 @@
       </c>
       <c r="C9" s="1"/>
       <c r="F9" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>11</v>
@@ -11314,7 +11258,7 @@
       </c>
       <c r="C10" s="1"/>
       <c r="F10" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>11</v>
@@ -11334,7 +11278,7 @@
       </c>
       <c r="C11" s="1"/>
       <c r="F11" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>11</v>
@@ -11354,7 +11298,7 @@
       </c>
       <c r="C12" s="1"/>
       <c r="F12" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>11</v>
@@ -11374,7 +11318,7 @@
       </c>
       <c r="C13" s="1"/>
       <c r="F13" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>11</v>
@@ -11394,14 +11338,14 @@
       </c>
       <c r="C14" s="1"/>
       <c r="E14" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K14" t="s">
         <v>21</v>
@@ -11416,7 +11360,7 @@
       </c>
       <c r="C15" s="1"/>
       <c r="F15" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>11</v>
@@ -11436,7 +11380,7 @@
       </c>
       <c r="C16" s="1"/>
       <c r="F16" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>11</v>
@@ -11456,7 +11400,7 @@
       </c>
       <c r="C17" s="1"/>
       <c r="F17" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>11</v>
@@ -11476,7 +11420,7 @@
       </c>
       <c r="C18" s="1"/>
       <c r="F18" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>11</v>
@@ -11496,7 +11440,7 @@
       </c>
       <c r="C19" s="1"/>
       <c r="F19" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>11</v>
@@ -11516,7 +11460,7 @@
       </c>
       <c r="C20" s="1"/>
       <c r="F20" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>11</v>
@@ -11536,14 +11480,14 @@
       </c>
       <c r="C21" s="1"/>
       <c r="E21" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K21" t="s">
         <v>21</v>
@@ -11558,7 +11502,7 @@
       </c>
       <c r="C22" s="1"/>
       <c r="F22" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>11</v>
@@ -11578,7 +11522,7 @@
       </c>
       <c r="C23" s="1"/>
       <c r="F23" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>11</v>
@@ -11598,7 +11542,7 @@
       </c>
       <c r="C24" s="1"/>
       <c r="F24" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>11</v>
@@ -11617,7 +11561,7 @@
         <v>9</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>11</v>
@@ -11627,10 +11571,10 @@
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K25" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -11642,7 +11586,7 @@
       </c>
       <c r="C26" s="1"/>
       <c r="D26" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>11</v>
@@ -11652,10 +11596,10 @@
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K26" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -11667,17 +11611,17 @@
       </c>
       <c r="C27" s="1"/>
       <c r="E27" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K27" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -11689,7 +11633,7 @@
       </c>
       <c r="C28" s="1"/>
       <c r="F28" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>11</v>
@@ -11697,7 +11641,7 @@
       <c r="I28" s="2"/>
       <c r="J28" s="1"/>
       <c r="K28" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -11709,7 +11653,7 @@
       </c>
       <c r="C29" s="1"/>
       <c r="F29" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>11</v>
@@ -11717,7 +11661,7 @@
       <c r="I29" s="2"/>
       <c r="J29" s="1"/>
       <c r="K29" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -11729,7 +11673,7 @@
       </c>
       <c r="C30" s="1"/>
       <c r="F30" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>11</v>
@@ -11737,7 +11681,7 @@
       <c r="I30" s="2"/>
       <c r="J30" s="1"/>
       <c r="K30" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -11749,7 +11693,7 @@
       </c>
       <c r="C31" s="1"/>
       <c r="F31" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>11</v>
@@ -11757,7 +11701,7 @@
       <c r="I31" s="2"/>
       <c r="J31" s="1"/>
       <c r="K31" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -11769,7 +11713,7 @@
       </c>
       <c r="C32" s="1"/>
       <c r="F32" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>11</v>
@@ -11777,7 +11721,7 @@
       <c r="I32" s="2"/>
       <c r="J32" s="1"/>
       <c r="K32" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -11789,7 +11733,7 @@
       </c>
       <c r="C33" s="1"/>
       <c r="F33" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>11</v>
@@ -11797,7 +11741,7 @@
       <c r="I33" s="2"/>
       <c r="J33" s="1"/>
       <c r="K33" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -11809,7 +11753,7 @@
       </c>
       <c r="C34" s="1"/>
       <c r="F34" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>11</v>
@@ -11817,7 +11761,7 @@
       <c r="I34" s="2"/>
       <c r="J34" s="1"/>
       <c r="K34" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -11829,7 +11773,7 @@
       </c>
       <c r="C35" s="1"/>
       <c r="D35" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>11</v>
@@ -11839,10 +11783,10 @@
       </c>
       <c r="I35" s="2"/>
       <c r="J35" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K35" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -11854,17 +11798,17 @@
       </c>
       <c r="C36" s="1"/>
       <c r="E36" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I36" s="2"/>
       <c r="J36" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K36" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -11876,7 +11820,7 @@
       </c>
       <c r="C37" s="1"/>
       <c r="F37" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>11</v>
@@ -11884,7 +11828,7 @@
       <c r="I37" s="2"/>
       <c r="J37" s="1"/>
       <c r="K37" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -11896,7 +11840,7 @@
       </c>
       <c r="C38" s="1"/>
       <c r="F38" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>11</v>
@@ -11904,7 +11848,7 @@
       <c r="I38" s="2"/>
       <c r="J38" s="1"/>
       <c r="K38" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -11916,7 +11860,7 @@
       </c>
       <c r="C39" s="1"/>
       <c r="F39" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>11</v>
@@ -11924,7 +11868,7 @@
       <c r="I39" s="2"/>
       <c r="J39" s="1"/>
       <c r="K39" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -11936,7 +11880,7 @@
       </c>
       <c r="C40" s="1"/>
       <c r="F40" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>11</v>
@@ -11944,7 +11888,7 @@
       <c r="I40" s="2"/>
       <c r="J40" s="1"/>
       <c r="K40" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -11956,7 +11900,7 @@
       </c>
       <c r="C41" s="1"/>
       <c r="F41" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>11</v>
@@ -11964,7 +11908,7 @@
       <c r="I41" s="2"/>
       <c r="J41" s="1"/>
       <c r="K41" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -11976,17 +11920,17 @@
       </c>
       <c r="C42" s="1"/>
       <c r="E42" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I42" s="2"/>
       <c r="J42" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K42" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -11998,7 +11942,7 @@
       </c>
       <c r="C43" s="1"/>
       <c r="F43" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>11</v>
@@ -12006,7 +11950,7 @@
       <c r="I43" s="2"/>
       <c r="J43" s="1"/>
       <c r="K43" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -12018,7 +11962,7 @@
       </c>
       <c r="C44" s="1"/>
       <c r="F44" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>11</v>
@@ -12026,7 +11970,7 @@
       <c r="I44" s="2"/>
       <c r="J44" s="1"/>
       <c r="K44" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -12038,7 +11982,7 @@
       </c>
       <c r="C45" s="1"/>
       <c r="F45" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>11</v>
@@ -12046,7 +11990,7 @@
       <c r="I45" s="2"/>
       <c r="J45" s="1"/>
       <c r="K45" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -12058,7 +12002,7 @@
       </c>
       <c r="C46" s="1"/>
       <c r="F46" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>11</v>
@@ -12066,7 +12010,7 @@
       <c r="I46" s="2"/>
       <c r="J46" s="1"/>
       <c r="K46" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -12078,17 +12022,17 @@
       </c>
       <c r="C47" s="1"/>
       <c r="E47" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I47" s="2"/>
       <c r="J47" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K47" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -12100,7 +12044,7 @@
       </c>
       <c r="C48" s="1"/>
       <c r="F48" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>11</v>
@@ -12108,7 +12052,7 @@
       <c r="I48" s="2"/>
       <c r="J48" s="1"/>
       <c r="K48" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -12120,7 +12064,7 @@
       </c>
       <c r="C49" s="1"/>
       <c r="F49" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>11</v>
@@ -12128,7 +12072,7 @@
       <c r="I49" s="2"/>
       <c r="J49" s="1"/>
       <c r="K49" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -12140,7 +12084,7 @@
       </c>
       <c r="C50" s="1"/>
       <c r="F50" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>11</v>
@@ -12148,7 +12092,7 @@
       <c r="I50" s="2"/>
       <c r="J50" s="1"/>
       <c r="K50" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -12160,7 +12104,7 @@
       </c>
       <c r="C51" s="1"/>
       <c r="F51" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>11</v>
@@ -12168,7 +12112,7 @@
       <c r="I51" s="2"/>
       <c r="J51" s="1"/>
       <c r="K51" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -12180,7 +12124,7 @@
       </c>
       <c r="C52" s="1"/>
       <c r="F52" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>11</v>
@@ -12188,7 +12132,7 @@
       <c r="I52" s="2"/>
       <c r="J52" s="1"/>
       <c r="K52" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -12203,7 +12147,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C909672A-E995-4C7B-B81B-85B33E495BE9}">
   <dimension ref="A1:I89"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
       <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
@@ -12222,14 +12166,6 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -12248,13 +12184,13 @@
         <v>7</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>8</v>
@@ -12268,16 +12204,16 @@
         <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -12289,14 +12225,14 @@
       </c>
       <c r="C4" s="1"/>
       <c r="D4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -12308,14 +12244,14 @@
       </c>
       <c r="C5" s="1"/>
       <c r="D5" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -12327,14 +12263,14 @@
       </c>
       <c r="C6" s="1"/>
       <c r="D6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -12346,14 +12282,14 @@
       </c>
       <c r="C7" s="1"/>
       <c r="D7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -12365,14 +12301,14 @@
       </c>
       <c r="C8" s="1"/>
       <c r="D8" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -12384,14 +12320,14 @@
       </c>
       <c r="C9" s="1"/>
       <c r="D9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -12403,14 +12339,14 @@
       </c>
       <c r="C10" s="1"/>
       <c r="D10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -12422,14 +12358,14 @@
       </c>
       <c r="C11" s="1"/>
       <c r="D11" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -12440,16 +12376,16 @@
         <v>15</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -12461,14 +12397,14 @@
       </c>
       <c r="C13" s="1"/>
       <c r="D13" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -12480,14 +12416,14 @@
       </c>
       <c r="C14" s="1"/>
       <c r="D14" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -12499,14 +12435,14 @@
       </c>
       <c r="C15" s="1"/>
       <c r="D15" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -12518,14 +12454,14 @@
       </c>
       <c r="C16" s="1"/>
       <c r="D16" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -12537,14 +12473,14 @@
       </c>
       <c r="C17" s="1"/>
       <c r="D17" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -12556,14 +12492,14 @@
       </c>
       <c r="C18" s="1"/>
       <c r="D18" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -12575,14 +12511,14 @@
       </c>
       <c r="C19" s="1"/>
       <c r="D19" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -12594,14 +12530,14 @@
       </c>
       <c r="C20" s="1"/>
       <c r="D20" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -12612,16 +12548,16 @@
         <v>15</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -12633,14 +12569,14 @@
       </c>
       <c r="C22" s="1"/>
       <c r="D22" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -12652,14 +12588,14 @@
       </c>
       <c r="C23" s="1"/>
       <c r="D23" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -12671,14 +12607,14 @@
       </c>
       <c r="C24" s="1"/>
       <c r="D24" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -12690,14 +12626,14 @@
       </c>
       <c r="C25" s="1"/>
       <c r="D25" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -12709,14 +12645,14 @@
       </c>
       <c r="C26" s="1"/>
       <c r="D26" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -12727,16 +12663,16 @@
         <v>15</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -12748,14 +12684,14 @@
       </c>
       <c r="C28" s="1"/>
       <c r="D28" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -12767,14 +12703,14 @@
       </c>
       <c r="C29" s="1"/>
       <c r="D29" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -12786,14 +12722,14 @@
       </c>
       <c r="C30" s="1"/>
       <c r="D30" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -12805,14 +12741,14 @@
       </c>
       <c r="C31" s="1"/>
       <c r="D31" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -12824,14 +12760,14 @@
       </c>
       <c r="C32" s="1"/>
       <c r="D32" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -12843,14 +12779,14 @@
       </c>
       <c r="C33" s="1"/>
       <c r="D33" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -12861,16 +12797,16 @@
         <v>15</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -12882,14 +12818,14 @@
       </c>
       <c r="C35" s="1"/>
       <c r="D35" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -12901,14 +12837,14 @@
       </c>
       <c r="C36" s="1"/>
       <c r="D36" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -12920,14 +12856,14 @@
       </c>
       <c r="C37" s="1"/>
       <c r="D37" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -12939,14 +12875,14 @@
       </c>
       <c r="C38" s="1"/>
       <c r="D38" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -12958,14 +12894,14 @@
       </c>
       <c r="C39" s="1"/>
       <c r="D39" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -12977,14 +12913,14 @@
       </c>
       <c r="C40" s="1"/>
       <c r="D40" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -12995,16 +12931,16 @@
         <v>15</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -13016,14 +12952,14 @@
       </c>
       <c r="C42" s="1"/>
       <c r="D42" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G42" s="1"/>
       <c r="H42" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -13035,14 +12971,14 @@
       </c>
       <c r="C43" s="1"/>
       <c r="D43" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G43" s="1"/>
       <c r="H43" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -13054,14 +12990,14 @@
       </c>
       <c r="C44" s="1"/>
       <c r="D44" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G44" s="1"/>
       <c r="H44" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -13072,16 +13008,16 @@
         <v>15</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -13093,14 +13029,14 @@
       </c>
       <c r="C46" s="1"/>
       <c r="D46" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G46" s="1"/>
       <c r="H46" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -13112,14 +13048,14 @@
       </c>
       <c r="C47" s="1"/>
       <c r="D47" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G47" s="1"/>
       <c r="H47" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -13131,14 +13067,14 @@
       </c>
       <c r="C48" s="1"/>
       <c r="D48" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G48" s="1"/>
       <c r="H48" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -13150,14 +13086,14 @@
       </c>
       <c r="C49" s="1"/>
       <c r="D49" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G49" s="1"/>
       <c r="H49" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -13168,16 +13104,16 @@
         <v>15</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -13189,14 +13125,14 @@
       </c>
       <c r="C51" s="1"/>
       <c r="D51" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G51" s="1"/>
       <c r="H51" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -13208,14 +13144,14 @@
       </c>
       <c r="C52" s="1"/>
       <c r="D52" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G52" s="1"/>
       <c r="H52" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -13227,14 +13163,14 @@
       </c>
       <c r="C53" s="1"/>
       <c r="D53" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G53" s="1"/>
       <c r="H53" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -13245,16 +13181,16 @@
         <v>15</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -13266,14 +13202,14 @@
       </c>
       <c r="C55" s="1"/>
       <c r="D55" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G55" s="1"/>
       <c r="H55" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -13285,14 +13221,14 @@
       </c>
       <c r="C56" s="1"/>
       <c r="D56" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G56" s="1"/>
       <c r="H56" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -13304,14 +13240,14 @@
       </c>
       <c r="C57" s="1"/>
       <c r="D57" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G57" s="1"/>
       <c r="H57" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -13323,14 +13259,14 @@
       </c>
       <c r="C58" s="1"/>
       <c r="D58" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G58" s="1"/>
       <c r="H58" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -13341,16 +13277,16 @@
         <v>15</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -13362,14 +13298,14 @@
       </c>
       <c r="C60" s="1"/>
       <c r="D60" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G60" s="1"/>
       <c r="H60" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -13381,14 +13317,14 @@
       </c>
       <c r="C61" s="1"/>
       <c r="D61" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G61" s="1"/>
       <c r="H61" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -13400,14 +13336,14 @@
       </c>
       <c r="C62" s="1"/>
       <c r="D62" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G62" s="1"/>
       <c r="H62" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -13419,14 +13355,14 @@
       </c>
       <c r="C63" s="1"/>
       <c r="D63" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G63" s="1"/>
       <c r="H63" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -13438,14 +13374,14 @@
       </c>
       <c r="C64" s="1"/>
       <c r="D64" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G64" s="1"/>
       <c r="H64" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -13457,14 +13393,14 @@
       </c>
       <c r="C65" s="1"/>
       <c r="D65" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G65" s="1"/>
       <c r="H65" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -13476,14 +13412,14 @@
       </c>
       <c r="C66" s="1"/>
       <c r="D66" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G66" s="1"/>
       <c r="H66" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -13495,14 +13431,14 @@
       </c>
       <c r="C67" s="1"/>
       <c r="D67" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G67" s="1"/>
       <c r="H67" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -13513,16 +13449,16 @@
         <v>15</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
@@ -13534,14 +13470,14 @@
       </c>
       <c r="C69" s="1"/>
       <c r="D69" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G69" s="1"/>
       <c r="H69" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -13553,14 +13489,14 @@
       </c>
       <c r="C70" s="1"/>
       <c r="D70" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G70" s="1"/>
       <c r="H70" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -13572,14 +13508,14 @@
       </c>
       <c r="C71" s="1"/>
       <c r="D71" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G71" s="1"/>
       <c r="H71" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -13591,14 +13527,14 @@
       </c>
       <c r="C72" s="1"/>
       <c r="D72" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G72" s="1"/>
       <c r="H72" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -13610,14 +13546,14 @@
       </c>
       <c r="C73" s="1"/>
       <c r="D73" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G73" s="1"/>
       <c r="H73" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -13629,14 +13565,14 @@
       </c>
       <c r="C74" s="1"/>
       <c r="D74" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G74" s="1"/>
       <c r="H74" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
@@ -13648,14 +13584,14 @@
       </c>
       <c r="C75" s="1"/>
       <c r="D75" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G75" s="1"/>
       <c r="H75" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -13667,14 +13603,14 @@
       </c>
       <c r="C76" s="1"/>
       <c r="D76" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G76" s="1"/>
       <c r="H76" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -13686,14 +13622,14 @@
       </c>
       <c r="C77" s="1"/>
       <c r="D77" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G77" s="1"/>
       <c r="H77" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -13704,16 +13640,16 @@
         <v>15</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -13725,14 +13661,14 @@
       </c>
       <c r="C79" s="1"/>
       <c r="D79" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G79" s="1"/>
       <c r="H79" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -13744,14 +13680,14 @@
       </c>
       <c r="C80" s="1"/>
       <c r="D80" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G80" s="1"/>
       <c r="H80" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -13763,14 +13699,14 @@
       </c>
       <c r="C81" s="1"/>
       <c r="D81" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G81" s="1"/>
       <c r="H81" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
@@ -13782,14 +13718,14 @@
       </c>
       <c r="C82" s="1"/>
       <c r="D82" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G82" s="1"/>
       <c r="H82" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -13801,14 +13737,14 @@
       </c>
       <c r="C83" s="1"/>
       <c r="D83" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G83" s="1"/>
       <c r="H83" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -13820,14 +13756,14 @@
       </c>
       <c r="C84" s="1"/>
       <c r="D84" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G84" s="1"/>
       <c r="H84" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -13839,14 +13775,14 @@
       </c>
       <c r="C85" s="1"/>
       <c r="D85" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G85" s="1"/>
       <c r="H85" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -13858,14 +13794,14 @@
       </c>
       <c r="C86" s="1"/>
       <c r="D86" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G86" s="1"/>
       <c r="H86" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
@@ -13877,14 +13813,14 @@
       </c>
       <c r="C87" s="1"/>
       <c r="D87" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G87" s="1"/>
       <c r="H87" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
@@ -13896,14 +13832,14 @@
       </c>
       <c r="C88" s="1"/>
       <c r="D88" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G88" s="1"/>
       <c r="H88" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
@@ -13915,14 +13851,14 @@
       </c>
       <c r="C89" s="1"/>
       <c r="D89" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G89" s="1"/>
       <c r="H89" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
   </sheetData>
